--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,12 +36,6 @@
     <font>
       <name val="Arial"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <sz val="10"/>
-    </font>
-    <font>
-      <sz val="30"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -83,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -95,16 +89,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -503,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:J19"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +543,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>28.02.2023</t>
+          <t>01.03.2023</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -635,11 +628,6 @@
       </c>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
-      <c r="J10" s="8" t="inlineStr">
-        <is>
-          <t>Drtugi teksy</t>
-        </is>
-      </c>
     </row>
     <row r="11" ht="37.5" customHeight="1">
       <c r="B11" s="7" t="inlineStr">
@@ -650,7 +638,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>28.02.2023</t>
+          <t>01.03.2023</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>
@@ -702,7 +690,7 @@
       <c r="E14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="9" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">                                               Robert Greń</t>
         </is>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>01.03.2023</t>
+          <t>06.03.2023</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>01.03.2023</t>
+          <t>06.03.2023</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>1</col>
@@ -193,13 +193,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -491,7 +491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -543,7 +543,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>06.03.2023</t>
+          <t>07.03.2023</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>06.03.2023</t>
+          <t>07.03.2023</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>
@@ -742,6 +742,6 @@
     <mergeCell ref="C10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>07.03.2023</t>
+          <t>09.03.2023</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>07.03.2023</t>
+          <t>09.03.2023</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -7,7 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DCV" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ACV" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DCI" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ACI" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,19 +32,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="22"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -51,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -73,34 +65,99 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -175,36 +232,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1333500" cy="1104900"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,12 +518,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E19"/>
+  <dimension ref="B5:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,244 +531,1078 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="13.71" customWidth="1" min="3" max="3"/>
-    <col width="30.57" customWidth="1" min="4" max="4"/>
-    <col width="20.85" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="2" ht="90" customHeight="1">
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Metro-Lab Agnieszka Greń 
- Warszawa 01-386 ul. Reżyserska 5 
- tel. (+48) 661 472 870 
- e-mail: poczta@metro-lab.pl 
-www.metro-lab.pl</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n"/>
-      <c r="E2" s="1" t="n"/>
-    </row>
-    <row r="3" ht="41.25" customHeight="1">
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>ŚWIADECTWO WZORCOWANIA</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Data wydania:</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>09.03.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Nr świadectwa: 9999/02/2023</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Strona 1/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="6" t="n"/>
-    </row>
-    <row r="7" ht="53.25" customHeight="1">
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>PRZEDMIOT 
-WZORCOWANIA</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multimetr [MODEL], nr </t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-    </row>
-    <row r="8" ht="45.75" customHeight="1">
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>ZGŁASZAJĄCY</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>LINETECH S.A.
-ul. Warecka 11A
-00-034 Warszawa</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-    </row>
-    <row r="9" ht="37.5" customHeight="1">
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>METODA 
-WZORCOWANIA</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Procedura pomiarowa PW005 wydanie 2</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-    </row>
-    <row r="10" ht="48" customHeight="1">
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>WARUNKI 
-ŚRODOWISKOWE</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Temperatura (21 ÷ 23) °C
-Wilgotność   (42 ÷ 47) %</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-    </row>
-    <row r="11" ht="37.5" customHeight="1">
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DATA WYKONANIA 
-WZORCOWANIA</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>09.03.2023</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
-    </row>
-    <row r="12" ht="79.5" customHeight="1">
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>SPÓJNOŚĆ 
-POMIAROWA</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Wyniki wzorcowania miernika zostały odniesione do wzorców państwowych przy wykorzystaniu multimetru wzorcowego: ...</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
-    </row>
-    <row r="13" ht="108.75" customHeight="1">
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>NIEPEWNOŚĆ 
-POMIARU</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Niepewność pomiaru została określona zgodnie z dokumentem EA-4/02 M:2021. Podane wartości niepewności stanowią niepewności rozszerzone przy prawdopodobieństwie rozszerzenia ok. 95 % i współczynniku rozszerzenia k = 2</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
-    </row>
-    <row r="14" ht="37.5" customHeight="1">
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>WYNIKI 
-WZOROCWANIA</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Podano na kolejnych stronach niniejszego świadectwa</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="n"/>
-      <c r="E14" s="1" t="n"/>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>mV</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                               Robert Greń</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="1" t="n"/>
-      <c r="E15" s="1" t="n"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="2" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
+      <c r="B16" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
-    </row>
-    <row r="19" ht="21" customHeight="1">
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="2" t="n">
+        <v>900</v>
+      </c>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="2" t="n">
+        <v>-900</v>
+      </c>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B15:E19"/>
-    <mergeCell ref="C10:E10"/>
+  <mergeCells count="7">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B5:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="2" t="n">
+        <v>375</v>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="n">
+        <v>675</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="2" t="n">
+        <v>-675</v>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B11:B14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B5:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="2" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B5:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="6" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B16:B19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B5:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>23.03.2023</t>
+          <t>28.03.2023</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>23.03.2023</t>
+          <t>28.03.2023</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matek\PycharmProjects\MultiMeasure\Zapis_Swiadectw_Wzorcowania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84268B39-ECDD-4713-AF6D-5426C40EE71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006413A-5ED1-4C25-A076-6F03B459BF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Swiadectwo" sheetId="1" r:id="rId1"/>
     <sheet name="DCV" sheetId="3" r:id="rId2"/>
-    <sheet name="DCI" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet" sheetId="2" r:id="rId4"/>
+    <sheet name="ACV" sheetId="4" r:id="rId3"/>
+    <sheet name="DCI" sheetId="5" r:id="rId4"/>
+    <sheet name="ACI" sheetId="6" r:id="rId5"/>
+    <sheet name="R" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
   <si>
     <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -38,7 +41,7 @@
     <t>Data wydania:</t>
   </si>
   <si>
-    <t>28.03.2023</t>
+    <t>29.03.2023</t>
   </si>
   <si>
     <t>Nr świadectwa: 9999/02/2023</t>
@@ -123,13 +126,121 @@
     <t>mV</t>
   </si>
   <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>-360</t>
+  </si>
+  <si>
     <t>V</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>-3.6</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>-900</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>-675</t>
+  </si>
+  <si>
     <t>mA</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>kΩ</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>MΩ</t>
   </si>
 </sst>
 </file>
@@ -170,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -182,6 +293,30 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -221,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -255,11 +390,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -789,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A94914-ED80-4104-BC11-CA23EF9F5BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFBE3A7-62B8-40FA-A40A-AF732CAC532E}">
   <dimension ref="B5:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -824,209 +961,213 @@
       <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
-        <v>400</v>
-      </c>
-      <c r="C7" s="13">
-        <v>40</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="13">
-        <v>200</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="13">
-        <v>360</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="13">
-        <v>-360</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="13">
-        <v>3.6</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="13">
-        <v>-3.6</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
-        <v>40</v>
-      </c>
-      <c r="C16" s="13">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="13">
-        <v>20</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="13">
-        <v>36</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="13">
-        <v>-36</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
-        <v>400</v>
-      </c>
-      <c r="C20" s="13">
-        <v>40</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="C20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="13">
-        <v>200</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="13">
-        <v>360</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="13">
-        <v>-360</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C24" s="13">
-        <v>100</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="13">
-        <v>500</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="13">
-        <v>900</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="13">
-        <v>-900</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1043,8 +1184,542 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533D4C5C-6D9B-4028-B658-0691DB103E9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5520381C-2BCB-4F65-B928-59634A1A53B4}">
+  <dimension ref="B5:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2771E43-09A8-404C-8F64-10BDD7EA3F51}">
   <dimension ref="B5:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:B23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5632C2-D509-4274-89E7-00B6BCB0357C}">
+  <dimension ref="B5:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:B19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1836B142-0347-4E0C-9966-07CD00E6FCD1}">
+  <dimension ref="B5:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1076,188 +1751,172 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="13">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="13">
-        <v>3.6</v>
-      </c>
+      <c r="B9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="13">
-        <v>-3.6</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="B11" s="17"/>
+      <c r="C11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="13">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="13">
-        <v>20</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="13">
-        <v>36</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="13">
-        <v>-36</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>400</v>
-      </c>
-      <c r="C15" s="13">
-        <v>40</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="13">
-        <v>200</v>
-      </c>
+      <c r="B16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="13">
-        <v>360</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="13">
-        <v>-360</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
-        <v>10</v>
-      </c>
-      <c r="C20" s="13">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="13">
-        <v>5</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="13">
-        <v>9</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="13">
-        <v>-9</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matek\PycharmProjects\MultiMeasure\Zapis_Swiadectw_Wzorcowania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006413A-5ED1-4C25-A076-6F03B459BF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D757D3B-6355-4B8D-BD52-7FE05BC193EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31710" yWindow="1500" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Swiadectwo" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -41,7 +41,7 @@
     <t>Data wydania:</t>
   </si>
   <si>
-    <t>29.03.2023</t>
+    <t>31.03.2023</t>
   </si>
   <si>
     <t>Nr świadectwa: 9999/02/2023</t>
@@ -126,118 +126,19 @@
     <t>mV</t>
   </si>
   <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>-360</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>-3.6</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>-900</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>675</t>
-  </si>
-  <si>
-    <t>-675</t>
-  </si>
-  <si>
     <t>mA</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
     <t>Ω</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>kΩ</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>MΩ</t>
@@ -281,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -293,30 +194,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -356,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -390,13 +267,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -926,8 +801,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFBE3A7-62B8-40FA-A40A-AF732CAC532E}">
-  <dimension ref="B5:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A51CC38-9E60-4F67-91C8-6B4FD121FA9C}">
+  <dimension ref="B15:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -940,252 +815,248 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="15" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="12">
+        <v>400</v>
+      </c>
+      <c r="C17" s="13">
         <v>40</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13">
+        <v>200</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13">
+        <v>360</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="13">
+        <v>-360</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="B22" s="12">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13">
+        <v>3.6</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="13">
+        <v>-3.6</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="B26" s="12">
+        <v>40</v>
+      </c>
+      <c r="C26" s="13">
+        <v>4</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="13">
+        <v>36</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="13">
+        <v>-36</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
+        <v>400</v>
+      </c>
+      <c r="C30" s="13">
+        <v>40</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="13">
+        <v>200</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="13">
+        <v>360</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="13">
+        <v>-360</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="12">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="13">
+        <v>100</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="13">
+        <v>500</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="13">
+        <v>900</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="13">
+        <v>-900</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5520381C-2BCB-4F65-B928-59634A1A53B4}">
-  <dimension ref="B5:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C40D36A-264F-4057-AC8A-D590A2BE18A8}">
+  <dimension ref="B15:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1198,125 +1069,121 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="15" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>400</v>
+      </c>
+      <c r="C17" s="13">
+        <v>40</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="13">
+        <v>200</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="13">
+        <v>360</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="13">
+        <v>-360</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>750</v>
+      </c>
+      <c r="C21" s="13">
+        <v>75</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13">
+        <v>375</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="13">
+        <v>675</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="13">
+        <v>-675</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2771E43-09A8-404C-8F64-10BDD7EA3F51}">
-  <dimension ref="B5:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81C45A2-809C-4159-9848-1090795C12E0}">
+  <dimension ref="B15:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1329,217 +1196,209 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="15" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="12">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13">
+        <v>3.6</v>
+      </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="13">
+        <v>-3.6</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>40</v>
+      </c>
+      <c r="C21" s="13">
+        <v>4</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13">
+        <v>20</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="13">
+        <v>36</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="13">
+        <v>-36</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
+        <v>400</v>
+      </c>
+      <c r="C25" s="13">
+        <v>40</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="13">
+        <v>200</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="13">
+        <v>360</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="13">
+        <v>-360</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
+        <v>10</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="13">
+        <v>5</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="13">
+        <v>9</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="13">
+        <v>-9</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5632C2-D509-4274-89E7-00B6BCB0357C}">
-  <dimension ref="B5:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7508E65D-259B-46A8-A399-4C6328965646}">
+  <dimension ref="B15:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1552,174 +1411,170 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="15" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="12">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13">
+        <v>4</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13">
+        <v>36</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="13">
+        <v>-36</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>400</v>
+      </c>
+      <c r="C21" s="13">
+        <v>40</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13">
+        <v>200</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="13">
+        <v>360</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="13">
+        <v>-360</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
+        <v>10</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="13">
+        <v>5</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="13">
+        <v>9</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="13">
+        <v>-9</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:B29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1836B142-0347-4E0C-9966-07CD00E6FCD1}">
-  <dimension ref="B5:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5351C489-33F9-46FC-AB20-2F7FD64F5AD7}">
+  <dimension ref="B15:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,185 +1587,181 @@
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="15" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="12">
+        <v>200</v>
+      </c>
+      <c r="C17" s="13">
+        <v>20</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="13">
+        <v>180</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="12">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13">
+        <v>2</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="13">
+        <v>18</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>200</v>
+      </c>
+      <c r="C24" s="13">
+        <v>20</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="13">
+        <v>180</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <v>20</v>
+      </c>
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="13">
+        <v>18</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>200</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="13">
+        <v>180</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="34095" yWindow="2070" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Swiadectwo" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="DCV" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ACV" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="DCI" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ACI" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -471,6 +473,66 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1333500" cy="1104900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1333500" cy="1104900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -766,13 +828,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="1" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="13.7109375" customWidth="1" min="3" max="3"/>
-    <col width="30.5703125" customWidth="1" min="4" max="4"/>
-    <col width="20.85546875" customWidth="1" min="5" max="5"/>
+    <col width="13.6640625" customWidth="1" min="3" max="3"/>
+    <col width="30.5546875" customWidth="1" min="4" max="4"/>
+    <col width="20.88671875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="2" ht="90" customHeight="1">
@@ -807,7 +869,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>03.04.2023</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -817,7 +879,7 @@
       </c>
       <c r="E4" s="8" t="inlineStr">
         <is>
-          <t>Strona 1/4</t>
+          <t>Strona 1/6</t>
         </is>
       </c>
     </row>
@@ -840,7 +902,7 @@
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multimetr [MODEL], nr </t>
+          <t>Multimetr [MODEL], nr 123</t>
         </is>
       </c>
       <c r="D7" s="13" t="n"/>
@@ -854,8 +916,8 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>LINETECH S.A.
-ul. Warecka 11A
+          <t>LINETECH S.A. 
+ul. Warecka 11A 
 00-034 Warszawa</t>
         </is>
       </c>
@@ -902,7 +964,7 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>03.04.2023</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="D11" s="13" t="n"/>
@@ -1010,13 +1072,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G41"/>
+  <dimension ref="A2:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1066,7 +1128,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>03.04.2023</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1078,7 +1140,7 @@
       <c r="F4" s="25" t="n"/>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>Strona 2/4</t>
+          <t>Strona 2/6</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1179,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="38.25" customHeight="1">
+    <row r="15" ht="39.6" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1158,17 +1220,17 @@
     <row r="17">
       <c r="B17" s="15" t="inlineStr">
         <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C17" s="15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="D17" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E17" s="15" t="inlineStr">
@@ -1182,79 +1244,55 @@
       <c r="B18" s="16" t="n"/>
       <c r="C18" s="15" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D18" s="15" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E18" s="15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
       <c r="F18" s="15" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="16" t="n"/>
       <c r="C19" s="15" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D19" s="15" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E19" s="15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n"/>
       <c r="F19" s="15" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="17" t="n"/>
       <c r="C20" s="15" t="inlineStr">
         <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="D20" s="15" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="E20" s="15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
       <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="15" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C21" s="15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="14" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="16" t="n"/>
+      <c r="B22" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="C22" s="15" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D22" s="15" t="n"/>
@@ -1265,7 +1303,7 @@
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="15" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D23" s="15" t="n"/>
@@ -1273,10 +1311,10 @@
       <c r="F23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="n"/>
+      <c r="B24" s="16" t="n"/>
       <c r="C24" s="15" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D24" s="15" t="n"/>
@@ -1284,25 +1322,25 @@
       <c r="F24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="15" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="14" t="n"/>
+      <c r="B25" s="17" t="n"/>
+      <c r="C25" s="15" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="15" t="n"/>
+      <c r="F25" s="15" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="15" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C26" s="15" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="C26" s="15" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
       <c r="D26" s="15" t="n"/>
@@ -1313,7 +1351,7 @@
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D27" s="15" t="n"/>
@@ -1324,7 +1362,7 @@
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="15" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D28" s="15" t="n"/>
@@ -1335,7 +1373,7 @@
       <c r="B29" s="17" t="n"/>
       <c r="C29" s="15" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="D29" s="15" t="n"/>
@@ -1345,12 +1383,12 @@
     <row r="30">
       <c r="B30" s="15" t="inlineStr">
         <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C30" s="15" t="inlineStr">
+        <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="C30" s="15" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="D30" s="15" t="n"/>
@@ -1361,7 +1399,7 @@
       <c r="B31" s="16" t="n"/>
       <c r="C31" s="15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D31" s="15" t="n"/>
@@ -1372,7 +1410,7 @@
       <c r="B32" s="16" t="n"/>
       <c r="C32" s="15" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D32" s="15" t="n"/>
@@ -1383,7 +1421,7 @@
       <c r="B33" s="17" t="n"/>
       <c r="C33" s="15" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-360</t>
         </is>
       </c>
       <c r="D33" s="15" t="n"/>
@@ -1393,12 +1431,12 @@
     <row r="34">
       <c r="B34" s="15" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C34" s="15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D34" s="15" t="n"/>
@@ -1409,7 +1447,7 @@
       <c r="B35" s="16" t="n"/>
       <c r="C35" s="15" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D35" s="15" t="n"/>
@@ -1420,7 +1458,7 @@
       <c r="B36" s="16" t="n"/>
       <c r="C36" s="15" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D36" s="15" t="n"/>
@@ -1431,76 +1469,27 @@
       <c r="B37" s="17" t="n"/>
       <c r="C37" s="15" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>-900</t>
         </is>
       </c>
       <c r="D37" s="15" t="n"/>
       <c r="E37" s="15" t="n"/>
       <c r="F37" s="15" t="n"/>
     </row>
-    <row r="38">
-      <c r="B38" s="15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C38" s="15" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D38" s="15" t="n"/>
-      <c r="E38" s="15" t="n"/>
-      <c r="F38" s="15" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="16" t="n"/>
-      <c r="C39" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="D39" s="15" t="n"/>
-      <c r="E39" s="15" t="n"/>
-      <c r="F39" s="15" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="16" t="n"/>
-      <c r="C40" s="15" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
-      <c r="D40" s="15" t="n"/>
-      <c r="E40" s="15" t="n"/>
-      <c r="F40" s="15" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="17" t="n"/>
-      <c r="C41" s="15" t="inlineStr">
-        <is>
-          <t>-900</t>
-        </is>
-      </c>
-      <c r="D41" s="15" t="n"/>
-      <c r="E41" s="15" t="n"/>
-      <c r="F41" s="15" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B21:B24"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B38:B41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1513,13 +1502,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1569,7 +1558,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>03.04.2023</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1581,7 +1570,7 @@
       <c r="F4" s="25" t="n"/>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>Strona 3/4</t>
+          <t>Strona 3/6</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1588,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="38.25" customHeight="1">
+    <row r="15" ht="39.6" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1639,10 +1628,10 @@
     </row>
     <row r="17">
       <c r="B17" s="15" t="n">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C17" s="15" t="n">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="D17" s="15" t="n"/>
       <c r="E17" s="15" t="n"/>
@@ -1651,7 +1640,7 @@
     <row r="18">
       <c r="B18" s="16" t="n"/>
       <c r="C18" s="15" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D18" s="15" t="n"/>
       <c r="E18" s="15" t="n"/>
@@ -1660,7 +1649,7 @@
     <row r="19">
       <c r="B19" s="16" t="n"/>
       <c r="C19" s="15" t="n">
-        <v>3.6</v>
+        <v>360</v>
       </c>
       <c r="D19" s="15" t="n"/>
       <c r="E19" s="15" t="n"/>
@@ -1669,7 +1658,7 @@
     <row r="20">
       <c r="B20" s="17" t="n"/>
       <c r="C20" s="15" t="n">
-        <v>-3.6</v>
+        <v>-360</v>
       </c>
       <c r="D20" s="15" t="n"/>
       <c r="E20" s="15" t="n"/>
@@ -1677,10 +1666,10 @@
     </row>
     <row r="21">
       <c r="B21" s="15" t="n">
-        <v>40</v>
+        <v>750</v>
       </c>
       <c r="C21" s="15" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D21" s="15" t="n"/>
       <c r="E21" s="15" t="n"/>
@@ -1689,7 +1678,7 @@
     <row r="22">
       <c r="B22" s="16" t="n"/>
       <c r="C22" s="15" t="n">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="D22" s="15" t="n"/>
       <c r="E22" s="15" t="n"/>
@@ -1698,7 +1687,7 @@
     <row r="23">
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="15" t="n">
-        <v>36</v>
+        <v>675</v>
       </c>
       <c r="D23" s="15" t="n"/>
       <c r="E23" s="15" t="n"/>
@@ -1707,90 +1696,14 @@
     <row r="24">
       <c r="B24" s="17" t="n"/>
       <c r="C24" s="15" t="n">
-        <v>-36</v>
+        <v>-675</v>
       </c>
       <c r="D24" s="15" t="n"/>
       <c r="E24" s="15" t="n"/>
       <c r="F24" s="15" t="n"/>
     </row>
-    <row r="25">
-      <c r="B25" s="15" t="n">
-        <v>400</v>
-      </c>
-      <c r="C25" s="15" t="n">
-        <v>40</v>
-      </c>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="16" t="n"/>
-      <c r="C26" s="15" t="n">
-        <v>200</v>
-      </c>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="15" t="n">
-        <v>360</v>
-      </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="17" t="n"/>
-      <c r="C28" s="15" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="15" t="n">
-        <v>750</v>
-      </c>
-      <c r="C29" s="15" t="n">
-        <v>75</v>
-      </c>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="16" t="n"/>
-      <c r="C30" s="15" t="n">
-        <v>375</v>
-      </c>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="15" t="n">
-        <v>675</v>
-      </c>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="17" t="n"/>
-      <c r="C32" s="15" t="n">
-        <v>-675</v>
-      </c>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B17:B20"/>
@@ -1799,8 +1712,6 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1813,13 +1724,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G38"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1869,7 +1780,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>03.04.2023</t>
+          <t>2023-04-06</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1881,7 +1792,7 @@
       <c r="F4" s="25" t="n"/>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>Strona 4/4</t>
+          <t>Strona 4/6</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1803,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="38.25" customHeight="1">
+    <row r="15" ht="39.6" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1922,7 +1833,7 @@
     <row r="16">
       <c r="B16" s="15" t="inlineStr">
         <is>
-          <t>uA</t>
+          <t>mA</t>
         </is>
       </c>
       <c r="C16" s="13" t="n"/>
@@ -1932,10 +1843,10 @@
     </row>
     <row r="17">
       <c r="B17" s="15" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="C17" s="15" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D17" s="15" t="n"/>
       <c r="E17" s="15" t="n"/>
@@ -1944,7 +1855,7 @@
     <row r="18">
       <c r="B18" s="16" t="n"/>
       <c r="C18" s="15" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D18" s="15" t="n"/>
       <c r="E18" s="15" t="n"/>
@@ -1953,7 +1864,7 @@
     <row r="19">
       <c r="B19" s="16" t="n"/>
       <c r="C19" s="15" t="n">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="D19" s="15" t="n"/>
       <c r="E19" s="15" t="n"/>
@@ -1962,29 +1873,27 @@
     <row r="20">
       <c r="B20" s="17" t="n"/>
       <c r="C20" s="15" t="n">
-        <v>-360</v>
+        <v>-36</v>
       </c>
       <c r="D20" s="15" t="n"/>
       <c r="E20" s="15" t="n"/>
       <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>mA</t>
-        </is>
-      </c>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="14" t="n"/>
+      <c r="B21" s="15" t="n">
+        <v>400</v>
+      </c>
+      <c r="C21" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="15" t="n">
-        <v>4</v>
-      </c>
+      <c r="B22" s="16" t="n"/>
       <c r="C22" s="15" t="n">
-        <v>0.4</v>
+        <v>200</v>
       </c>
       <c r="D22" s="15" t="n"/>
       <c r="E22" s="15" t="n"/>
@@ -1993,36 +1902,38 @@
     <row r="23">
       <c r="B23" s="16" t="n"/>
       <c r="C23" s="15" t="n">
-        <v>2</v>
+        <v>360</v>
       </c>
       <c r="D23" s="15" t="n"/>
       <c r="E23" s="15" t="n"/>
       <c r="F23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="16" t="n"/>
+      <c r="B24" s="17" t="n"/>
       <c r="C24" s="15" t="n">
-        <v>3.6</v>
+        <v>-360</v>
       </c>
       <c r="D24" s="15" t="n"/>
       <c r="E24" s="15" t="n"/>
       <c r="F24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="17" t="n"/>
-      <c r="C25" s="15" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
+      <c r="B25" s="15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="14" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="15" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C26" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" s="15" t="n"/>
       <c r="E26" s="15" t="n"/>
@@ -2031,7 +1942,7 @@
     <row r="27">
       <c r="B27" s="16" t="n"/>
       <c r="C27" s="15" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D27" s="15" t="n"/>
       <c r="E27" s="15" t="n"/>
@@ -2040,7 +1951,7 @@
     <row r="28">
       <c r="B28" s="16" t="n"/>
       <c r="C28" s="15" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D28" s="15" t="n"/>
       <c r="E28" s="15" t="n"/>
@@ -2049,114 +1960,24 @@
     <row r="29">
       <c r="B29" s="17" t="n"/>
       <c r="C29" s="15" t="n">
-        <v>-36</v>
+        <v>-9</v>
       </c>
       <c r="D29" s="15" t="n"/>
       <c r="E29" s="15" t="n"/>
       <c r="F29" s="15" t="n"/>
     </row>
-    <row r="30">
-      <c r="B30" s="15" t="n">
-        <v>400</v>
-      </c>
-      <c r="C30" s="15" t="n">
-        <v>40</v>
-      </c>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="15" t="n">
-        <v>200</v>
-      </c>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="15" t="n">
-        <v>360</v>
-      </c>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="15" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C34" s="13" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="13" t="n"/>
-      <c r="F34" s="14" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C35" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="16" t="n"/>
-      <c r="C36" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="16" t="n"/>
-      <c r="C37" s="15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D37" s="15" t="n"/>
-      <c r="E37" s="15" t="n"/>
-      <c r="F37" s="15" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="17" t="n"/>
-      <c r="C38" s="15" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D38" s="15" t="n"/>
-      <c r="E38" s="15" t="n"/>
-      <c r="F38" s="15" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:B25"/>
+  <mergeCells count="10">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B34:F34"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -2164,6 +1985,566 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="92" customHeight="1">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
+        <is>
+          <t>Metro-Lab Agnieszka Greń 
+ Warszawa 01-386 ul. Reżyserska 5 
+ tel. (+48) 661 472 870 
+ e-mail: poczta@metro-lab.pl 
+www.metro-lab.pl</t>
+        </is>
+      </c>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="41.25" customHeight="1">
+      <c r="A3" s="27" t="inlineStr">
+        <is>
+          <t>ŚWIADECTWO WZORCOWANIA</t>
+        </is>
+      </c>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="28" t="inlineStr">
+        <is>
+          <t>Data wydania:</t>
+        </is>
+      </c>
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/02/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
+        <is>
+          <t>Strona 5/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Wyznaczenie poprawek wskazań nateżenia prądu przemiennego AC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        f = 60 Hz</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="39.6" customHeight="1">
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="14" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="15" t="n"/>
+      <c r="F17" s="15" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="15" t="n">
+        <v>36</v>
+      </c>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="15" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="15" t="n">
+        <v>400</v>
+      </c>
+      <c r="C21" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="15" t="n">
+        <v>200</v>
+      </c>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="15" t="n">
+        <v>360</v>
+      </c>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="17" t="n"/>
+      <c r="C24" s="15" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="14" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="15" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n"/>
+      <c r="F27" s="15" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n"/>
+      <c r="F28" s="15" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="17" t="n"/>
+      <c r="C29" s="15" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D29" s="15" t="n"/>
+      <c r="E29" s="15" t="n"/>
+      <c r="F29" s="15" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B21:B24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="92" customHeight="1">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
+        <is>
+          <t>Metro-Lab Agnieszka Greń 
+ Warszawa 01-386 ul. Reżyserska 5 
+ tel. (+48) 661 472 870 
+ e-mail: poczta@metro-lab.pl 
+www.metro-lab.pl</t>
+        </is>
+      </c>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="41.25" customHeight="1">
+      <c r="A3" s="27" t="inlineStr">
+        <is>
+          <t>ŚWIADECTWO WZORCOWANIA</t>
+        </is>
+      </c>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="28" t="inlineStr">
+        <is>
+          <t>Data wydania:</t>
+        </is>
+      </c>
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/02/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
+        <is>
+          <t>Strona 6/6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Wyznaczenie poprawek wskazań rezystancji.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="39.6" customHeight="1">
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="14" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="15" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="15" t="n"/>
+      <c r="F17" s="15" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="17" t="n"/>
+      <c r="C18" s="15" t="n">
+        <v>180</v>
+      </c>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="15" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="14" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="17" t="n"/>
+      <c r="C21" s="15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="17" t="n"/>
+      <c r="C23" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="15" t="n">
+        <v>200</v>
+      </c>
+      <c r="C24" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="17" t="n"/>
+      <c r="C25" s="15" t="n">
+        <v>180</v>
+      </c>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="15" t="n"/>
+      <c r="F25" s="15" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="15" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="14" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n"/>
+      <c r="F27" s="15" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="17" t="n"/>
+      <c r="C28" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n"/>
+      <c r="F28" s="15" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="15" t="n">
+        <v>200</v>
+      </c>
+      <c r="C29" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D29" s="15" t="n"/>
+      <c r="E29" s="15" t="n"/>
+      <c r="F29" s="15" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="17" t="n"/>
+      <c r="C30" s="15" t="n">
+        <v>180</v>
+      </c>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="15" t="n"/>
+      <c r="F30" s="15" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B29:B30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2175,7 +2556,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2835" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Swiadectwo" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,30 +68,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -197,6 +173,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="00000000"/>
       </left>
@@ -248,20 +248,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -828,13 +828,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="1" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="13.6640625" customWidth="1" min="3" max="3"/>
-    <col width="30.5546875" customWidth="1" min="4" max="4"/>
-    <col width="20.88671875" customWidth="1" min="5" max="5"/>
+    <col width="13.7109375" customWidth="1" min="3" max="3"/>
+    <col width="30.5703125" customWidth="1" min="4" max="4"/>
+    <col width="20.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="2" ht="90" customHeight="1">
@@ -848,8 +848,8 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="14" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="17" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
       <c r="B3" s="9" t="inlineStr">
@@ -857,9 +857,9 @@
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="14" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="17" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="B4" s="8" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>13.04.2023</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -884,10 +884,10 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="B5" s="17" t="n"/>
-      <c r="C5" s="17" t="n"/>
-      <c r="D5" s="17" t="n"/>
-      <c r="E5" s="17" t="n"/>
+      <c r="B5" s="15" t="n"/>
+      <c r="C5" s="15" t="n"/>
+      <c r="D5" s="15" t="n"/>
+      <c r="E5" s="15" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="B6" s="2" t="n"/>
@@ -902,11 +902,11 @@
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>Multimetr [MODEL], nr 123</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="14" t="n"/>
+          <t xml:space="preserve">Multimetr [MODEL], nr </t>
+        </is>
+      </c>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="17" t="n"/>
     </row>
     <row r="8" ht="45.75" customHeight="1">
       <c r="B8" s="11" t="inlineStr">
@@ -916,13 +916,13 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>LINETECH S.A. 
-ul. Warecka 11A 
+          <t>LINETECH S.A.
+ul. Warecka 11A
 00-034 Warszawa</t>
         </is>
       </c>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="14" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="17" t="n"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
       <c r="B9" s="11" t="inlineStr">
@@ -936,8 +936,8 @@
           <t>Procedura pomiarowa PW005 wydanie 2</t>
         </is>
       </c>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="14" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="17" t="n"/>
     </row>
     <row r="10" ht="48" customHeight="1">
       <c r="B10" s="11" t="inlineStr">
@@ -952,8 +952,8 @@
 Wilgotność   (42 ÷ 47) %</t>
         </is>
       </c>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="14" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="17" t="n"/>
     </row>
     <row r="11" ht="37.5" customHeight="1">
       <c r="B11" s="11" t="inlineStr">
@@ -964,11 +964,11 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
-        </is>
-      </c>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="14" t="n"/>
+          <t>13.04.2023</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="17" t="n"/>
     </row>
     <row r="12" ht="79.5" customHeight="1">
       <c r="B12" s="11" t="inlineStr">
@@ -982,8 +982,8 @@
           <t>Wyniki wzorcowania miernika zostały odniesione do wzorców państwowych przy wykorzystaniu multimetru wzorcowego: ...</t>
         </is>
       </c>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="14" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="17" t="n"/>
     </row>
     <row r="13" ht="108.75" customHeight="1">
       <c r="B13" s="11" t="inlineStr">
@@ -997,8 +997,8 @@
           <t>Niepewność pomiaru została określona zgodnie z dokumentem EA-4/02 M:2021. Podane wartości niepewności stanowią niepewności rozszerzone przy prawdopodobieństwie rozszerzenia ok. 95 % i współczynniku rozszerzenia k = 2</t>
         </is>
       </c>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="14" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="17" t="n"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
       <c r="B14" s="11" t="inlineStr">
@@ -1012,8 +1012,8 @@
           <t>Podano na kolejnych stronach niniejszego świadectwa</t>
         </is>
       </c>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="14" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="17" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="10" t="inlineStr">
@@ -1062,6 +1062,14 @@
     <mergeCell ref="C10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CNiniejsze świadectwo może być okazywane lub kopiowane tylko w całości.</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1078,7 +1086,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1128,7 +1136,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>13.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1179,7 +1187,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1207,274 +1215,216 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>mV</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D17" s="15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E17" s="15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F17" s="15" t="n"/>
+      <c r="B17" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n">
+        <v>360</v>
+      </c>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="inlineStr">
-        <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
+      <c r="B21" s="13" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C21" s="13" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="14" t="n"/>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="16" t="n"/>
+      <c r="F21" s="17" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C22" s="15" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="B22" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="16" t="n"/>
-      <c r="C24" s="15" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="17" t="n"/>
-      <c r="C25" s="15" t="inlineStr">
-        <is>
-          <t>-3.6</t>
-        </is>
-      </c>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
+      <c r="B25" s="15" t="n"/>
+      <c r="C25" s="13" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C26" s="15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
+      <c r="B26" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="C26" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="15" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
+      <c r="B28" s="14" t="n"/>
+      <c r="C28" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
+      <c r="B29" s="15" t="n"/>
+      <c r="C29" s="13" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C30" s="15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
+      <c r="B30" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C30" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="15" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="15" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
+      <c r="B32" s="14" t="n"/>
+      <c r="C32" s="13" t="n">
+        <v>360</v>
+      </c>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="13" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="15" t="inlineStr">
-        <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
+      <c r="B33" s="15" t="n"/>
+      <c r="C33" s="13" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="13" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C34" s="15" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n"/>
-      <c r="F34" s="15" t="n"/>
+      <c r="B34" s="13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D34" s="13" t="n"/>
+      <c r="E34" s="13" t="n"/>
+      <c r="F34" s="13" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="n"/>
+      <c r="B35" s="14" t="n"/>
+      <c r="C35" s="13" t="n">
+        <v>500</v>
+      </c>
+      <c r="D35" s="13" t="n"/>
+      <c r="E35" s="13" t="n"/>
+      <c r="F35" s="13" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="16" t="n"/>
-      <c r="C36" s="15" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
+      <c r="B36" s="14" t="n"/>
+      <c r="C36" s="13" t="n">
+        <v>900</v>
+      </c>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="13" t="n"/>
+      <c r="F36" s="13" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="17" t="n"/>
-      <c r="C37" s="15" t="inlineStr">
-        <is>
-          <t>-900</t>
-        </is>
-      </c>
-      <c r="D37" s="15" t="n"/>
-      <c r="E37" s="15" t="n"/>
-      <c r="F37" s="15" t="n"/>
+      <c r="B37" s="15" t="n"/>
+      <c r="C37" s="13" t="n">
+        <v>-900</v>
+      </c>
+      <c r="D37" s="13" t="n"/>
+      <c r="E37" s="13" t="n"/>
+      <c r="F37" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1492,6 +1442,14 @@
     <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CNiniejsze świadectwo może być okazywane lub kopiowane tylko w całości.</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1508,7 +1466,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1558,7 +1516,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>13.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1588,7 +1546,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1616,91 +1574,91 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="n">
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="n">
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n">
         <v>360</v>
       </c>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="n">
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n">
         <v>-360</v>
       </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="n">
+      <c r="B21" s="13" t="n">
         <v>750</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="13" t="n">
         <v>75</v>
       </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="15" t="n">
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="13" t="n">
         <v>375</v>
       </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="n">
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n">
         <v>675</v>
       </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="n"/>
-      <c r="C24" s="15" t="n">
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="13" t="n">
         <v>-675</v>
       </c>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1714,6 +1672,14 @@
     <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CNiniejsze świadectwo może być okazywane lub kopiowane tylko w całości.</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1724,13 +1690,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G29"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1780,7 +1746,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>13.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1803,7 +1769,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1831,155 +1797,202 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C21" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="n">
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="n">
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n">
         <v>36</v>
       </c>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="n">
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="13" t="n">
         <v>-36</v>
       </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="15" t="n">
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C25" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="15" t="n">
-        <v>200</v>
-      </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="n">
-        <v>360</v>
-      </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="17" t="n"/>
-      <c r="C24" s="15" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
       <c r="E25" s="13" t="n"/>
-      <c r="F25" s="14" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n">
+      <c r="B26" s="14" t="n"/>
+      <c r="C26" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="13" t="n">
+        <v>360</v>
+      </c>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="13" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n"/>
+      <c r="F29" s="17" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="C26" s="15" t="n">
+      <c r="C30" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="15" t="n">
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="n">
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="14" t="n"/>
+      <c r="C32" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="n">
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="13" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="15" t="n"/>
+      <c r="C33" s="13" t="n">
         <v>-9</v>
       </c>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B29:F29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:B29"/>
     <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CNiniejsze świadectwo może być okazywane lub kopiowane tylko w całości.</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1996,7 +2009,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -2046,7 +2059,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>13.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -2076,7 +2089,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -2104,140 +2117,140 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="n">
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="n">
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n">
         <v>36</v>
       </c>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="n">
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n">
         <v>-36</v>
       </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="n">
+      <c r="B21" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="15" t="n">
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="n">
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n">
         <v>360</v>
       </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="n"/>
-      <c r="C24" s="15" t="n">
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="13" t="n">
         <v>-360</v>
       </c>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="15" t="inlineStr">
+      <c r="B25" s="13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="14" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="17" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n">
+      <c r="B26" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="C26" s="15" t="n">
+      <c r="C26" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="15" t="n">
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="n">
+      <c r="B28" s="14" t="n"/>
+      <c r="C28" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="n">
+      <c r="B29" s="15" t="n"/>
+      <c r="C29" s="13" t="n">
         <v>-9</v>
       </c>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2253,6 +2266,14 @@
     <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CNiniejsze świadectwo może być okazywane lub kopiowane tylko w całości.</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2269,7 +2290,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -2319,7 +2340,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>2023-04-06</t>
+          <t>13.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -2342,7 +2363,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -2370,157 +2391,157 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>Ω</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="17" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="17" t="n"/>
-      <c r="C18" s="15" t="n">
+      <c r="B18" s="15" t="n"/>
+      <c r="C18" s="13" t="n">
         <v>180</v>
       </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="15" t="inlineStr">
+      <c r="B19" s="13" t="inlineStr">
         <is>
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="14" t="n"/>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n"/>
+      <c r="F19" s="17" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n">
+      <c r="B20" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="15" t="n">
+      <c r="C20" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="15" t="n">
+      <c r="B21" s="15" t="n"/>
+      <c r="C21" s="13" t="n">
         <v>1.8</v>
       </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="15" t="n">
+      <c r="B22" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="C22" s="15" t="n">
+      <c r="C22" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="17" t="n"/>
-      <c r="C23" s="15" t="n">
+      <c r="B23" s="15" t="n"/>
+      <c r="C23" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="15" t="n">
+      <c r="B24" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="C24" s="15" t="n">
+      <c r="C24" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="17" t="n"/>
-      <c r="C25" s="15" t="n">
+      <c r="B25" s="15" t="n"/>
+      <c r="C25" s="13" t="n">
         <v>180</v>
       </c>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="inlineStr">
+      <c r="B26" s="13" t="inlineStr">
         <is>
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="14" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n"/>
+      <c r="F26" s="17" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="15" t="n">
+      <c r="B27" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="C27" s="15" t="n">
+      <c r="C27" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="17" t="n"/>
-      <c r="C28" s="15" t="n">
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="15" t="n">
+      <c r="B29" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="C29" s="15" t="n">
+      <c r="C29" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="17" t="n"/>
-      <c r="C30" s="15" t="n">
+      <c r="B30" s="15" t="n"/>
+      <c r="C30" s="13" t="n">
         <v>180</v>
       </c>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2540,6 +2561,14 @@
     <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;CNiniejsze świadectwo może być okazywane lub kopiowane tylko w całości.</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2556,7 +2585,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2835" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Swiadectwo" sheetId="1" state="visible" r:id="rId1"/>
@@ -828,13 +828,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="1" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="13.7109375" customWidth="1" min="3" max="3"/>
-    <col width="30.5703125" customWidth="1" min="4" max="4"/>
-    <col width="20.85546875" customWidth="1" min="5" max="5"/>
+    <col width="13.6640625" customWidth="1" min="3" max="3"/>
+    <col width="30.5546875" customWidth="1" min="4" max="4"/>
+    <col width="20.88671875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="2" ht="90" customHeight="1">
@@ -869,7 +869,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>13.04.2023</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>13.04.2023</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="D11" s="16" t="n"/>
@@ -1086,7 +1086,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1136,7 +1136,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>13.04.2023</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="38.25" customHeight="1">
+    <row r="15" ht="39.6" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1466,7 +1466,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1516,7 +1516,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>13.04.2023</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="38.25" customHeight="1">
+    <row r="15" ht="39.6" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1696,7 +1696,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1746,7 +1746,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>13.04.2023</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1769,7 +1769,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="38.25" customHeight="1">
+    <row r="15" ht="39.6" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -2009,7 +2009,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -2059,7 +2059,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>13.04.2023</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="38.25" customHeight="1">
+    <row r="15" ht="39.6" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -2290,7 +2290,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -2340,7 +2340,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>13.04.2023</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="38.25" customHeight="1">
+    <row r="15" ht="39.6" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -2585,7 +2585,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="32520" yWindow="2415" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Swiadectwo" sheetId="1" state="visible" r:id="rId1"/>
@@ -68,6 +68,30 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -173,30 +197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="00000000"/>
       </left>
@@ -248,20 +248,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -828,13 +828,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="1" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="13.6640625" customWidth="1" min="3" max="3"/>
-    <col width="30.5546875" customWidth="1" min="4" max="4"/>
-    <col width="20.88671875" customWidth="1" min="5" max="5"/>
+    <col width="13.7109375" customWidth="1" min="3" max="3"/>
+    <col width="30.5703125" customWidth="1" min="4" max="4"/>
+    <col width="20.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="2" ht="90" customHeight="1">
@@ -848,8 +848,8 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="16" t="n"/>
-      <c r="E2" s="17" t="n"/>
+      <c r="D2" s="13" t="n"/>
+      <c r="E2" s="14" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
       <c r="B3" s="9" t="inlineStr">
@@ -857,9 +857,9 @@
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="C3" s="16" t="n"/>
-      <c r="D3" s="16" t="n"/>
-      <c r="E3" s="17" t="n"/>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="13" t="n"/>
+      <c r="E3" s="14" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="B4" s="8" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>15.04.2023</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -884,10 +884,10 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="B5" s="15" t="n"/>
-      <c r="C5" s="15" t="n"/>
-      <c r="D5" s="15" t="n"/>
-      <c r="E5" s="15" t="n"/>
+      <c r="B5" s="17" t="n"/>
+      <c r="C5" s="17" t="n"/>
+      <c r="D5" s="17" t="n"/>
+      <c r="E5" s="17" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="B6" s="2" t="n"/>
@@ -905,8 +905,8 @@
           <t xml:space="preserve">Multimetr [MODEL], nr </t>
         </is>
       </c>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="17" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="14" t="n"/>
     </row>
     <row r="8" ht="45.75" customHeight="1">
       <c r="B8" s="11" t="inlineStr">
@@ -921,8 +921,8 @@
 00-034 Warszawa</t>
         </is>
       </c>
-      <c r="D8" s="16" t="n"/>
-      <c r="E8" s="17" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="14" t="n"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
       <c r="B9" s="11" t="inlineStr">
@@ -936,8 +936,8 @@
           <t>Procedura pomiarowa PW005 wydanie 2</t>
         </is>
       </c>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="17" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="14" t="n"/>
     </row>
     <row r="10" ht="48" customHeight="1">
       <c r="B10" s="11" t="inlineStr">
@@ -952,8 +952,8 @@
 Wilgotność   (42 ÷ 47) %</t>
         </is>
       </c>
-      <c r="D10" s="16" t="n"/>
-      <c r="E10" s="17" t="n"/>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="14" t="n"/>
     </row>
     <row r="11" ht="37.5" customHeight="1">
       <c r="B11" s="11" t="inlineStr">
@@ -964,11 +964,11 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
-        </is>
-      </c>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="17" t="n"/>
+          <t>15.04.2023</t>
+        </is>
+      </c>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="14" t="n"/>
     </row>
     <row r="12" ht="79.5" customHeight="1">
       <c r="B12" s="11" t="inlineStr">
@@ -982,8 +982,8 @@
           <t>Wyniki wzorcowania miernika zostały odniesione do wzorców państwowych przy wykorzystaniu multimetru wzorcowego: ...</t>
         </is>
       </c>
-      <c r="D12" s="16" t="n"/>
-      <c r="E12" s="17" t="n"/>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="14" t="n"/>
     </row>
     <row r="13" ht="108.75" customHeight="1">
       <c r="B13" s="11" t="inlineStr">
@@ -997,8 +997,8 @@
           <t>Niepewność pomiaru została określona zgodnie z dokumentem EA-4/02 M:2021. Podane wartości niepewności stanowią niepewności rozszerzone przy prawdopodobieństwie rozszerzenia ok. 95 % i współczynniku rozszerzenia k = 2</t>
         </is>
       </c>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="17" t="n"/>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="14" t="n"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
       <c r="B14" s="11" t="inlineStr">
@@ -1012,8 +1012,8 @@
           <t>Podano na kolejnych stronach niniejszego świadectwa</t>
         </is>
       </c>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="17" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="14" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="10" t="inlineStr">
@@ -1080,13 +1080,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1097,6 +1097,7 @@
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" ht="92" customHeight="1">
       <c r="A2" s="25" t="n"/>
       <c r="B2" s="25" t="n"/>
@@ -1136,7 +1137,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>15.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1152,6 +1153,8 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
+    <row r="6"/>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
@@ -1180,6 +1183,7 @@
         </is>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
@@ -1187,7 +1191,9 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1215,216 +1221,198 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>mV</t>
         </is>
       </c>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
-      <c r="F16" s="17" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="15" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="n">
-        <v>400</v>
-      </c>
-      <c r="C17" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="15" t="n"/>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="13" t="n">
-        <v>360</v>
-      </c>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="15" t="n"/>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n"/>
-      <c r="C20" s="13" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="15" t="n"/>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="13" t="inlineStr">
+      <c r="B21" s="15" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C21" s="16" t="n"/>
-      <c r="D21" s="16" t="n"/>
-      <c r="E21" s="16" t="n"/>
-      <c r="F21" s="17" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="14" t="n"/>
+      <c r="F21" s="15" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" s="13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
+      <c r="B22" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C22" s="15" t="n"/>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="15" t="n"/>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="14" t="n"/>
-      <c r="C24" s="13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="15" t="n"/>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="15" t="n"/>
-      <c r="C25" s="13" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
+      <c r="B25" s="17" t="n"/>
+      <c r="C25" s="15" t="n"/>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="15" t="n"/>
+      <c r="F25" s="15" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="C26" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
+      <c r="B26" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C26" s="15" t="n"/>
+      <c r="D26" s="15" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="15" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="15" t="n"/>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n"/>
+      <c r="F27" s="15" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="14" t="n"/>
-      <c r="C28" s="13" t="n">
-        <v>36</v>
-      </c>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
-      <c r="F28" s="13" t="n"/>
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="15" t="n"/>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n"/>
+      <c r="F28" s="15" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="15" t="n"/>
-      <c r="C29" s="13" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="13" t="n"/>
-      <c r="F29" s="13" t="n"/>
+      <c r="B29" s="17" t="n"/>
+      <c r="C29" s="15" t="n"/>
+      <c r="D29" s="15" t="n"/>
+      <c r="E29" s="15" t="n"/>
+      <c r="F29" s="15" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="13" t="n">
-        <v>400</v>
-      </c>
-      <c r="C30" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="13" t="n"/>
-      <c r="F30" s="13" t="n"/>
+      <c r="B30" s="15" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C30" s="15" t="n"/>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="15" t="n"/>
+      <c r="F30" s="15" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="14" t="n"/>
-      <c r="C31" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="13" t="n"/>
-      <c r="F31" s="13" t="n"/>
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="15" t="n"/>
+      <c r="D31" s="15" t="n"/>
+      <c r="E31" s="15" t="n"/>
+      <c r="F31" s="15" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="14" t="n"/>
-      <c r="C32" s="13" t="n">
-        <v>360</v>
-      </c>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="13" t="n"/>
-      <c r="F32" s="13" t="n"/>
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="15" t="n"/>
+      <c r="D32" s="15" t="n"/>
+      <c r="E32" s="15" t="n"/>
+      <c r="F32" s="15" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="15" t="n"/>
-      <c r="C33" s="13" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="13" t="n"/>
-      <c r="F33" s="13" t="n"/>
+      <c r="B33" s="17" t="n"/>
+      <c r="C33" s="15" t="n"/>
+      <c r="D33" s="15" t="n"/>
+      <c r="E33" s="15" t="n"/>
+      <c r="F33" s="15" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C34" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="13" t="n"/>
-      <c r="F34" s="13" t="n"/>
+      <c r="B34" s="15" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C34" s="15" t="n"/>
+      <c r="D34" s="15" t="n"/>
+      <c r="E34" s="15" t="n"/>
+      <c r="F34" s="15" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="14" t="n"/>
-      <c r="C35" s="13" t="n">
-        <v>500</v>
-      </c>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="13" t="n"/>
-      <c r="F35" s="13" t="n"/>
+      <c r="B35" s="16" t="n"/>
+      <c r="C35" s="15" t="n"/>
+      <c r="D35" s="15" t="n"/>
+      <c r="E35" s="15" t="n"/>
+      <c r="F35" s="15" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="14" t="n"/>
-      <c r="C36" s="13" t="n">
-        <v>900</v>
-      </c>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="13" t="n"/>
-      <c r="F36" s="13" t="n"/>
+      <c r="B36" s="16" t="n"/>
+      <c r="C36" s="15" t="n"/>
+      <c r="D36" s="15" t="n"/>
+      <c r="E36" s="15" t="n"/>
+      <c r="F36" s="15" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="15" t="n"/>
-      <c r="C37" s="13" t="n">
-        <v>-900</v>
-      </c>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="13" t="n"/>
-      <c r="F37" s="13" t="n"/>
+      <c r="B37" s="17" t="n"/>
+      <c r="C37" s="15" t="n"/>
+      <c r="D37" s="15" t="n"/>
+      <c r="E37" s="15" t="n"/>
+      <c r="F37" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1460,13 +1448,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1477,6 +1465,7 @@
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" ht="92" customHeight="1">
       <c r="A2" s="25" t="n"/>
       <c r="B2" s="25" t="n"/>
@@ -1516,7 +1505,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>15.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1532,6 +1521,13 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
@@ -1546,7 +1542,8 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="14"/>
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1574,91 +1571,79 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
-      <c r="F16" s="17" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="15" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="n">
-        <v>400</v>
-      </c>
-      <c r="C17" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="n"/>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="15" t="n"/>
+      <c r="F17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="15" t="n"/>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="13" t="n">
-        <v>360</v>
-      </c>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="15" t="n"/>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n"/>
-      <c r="C20" s="13" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="15" t="n"/>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="13" t="n">
-        <v>750</v>
-      </c>
-      <c r="C21" s="13" t="n">
-        <v>75</v>
-      </c>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
+      <c r="B21" s="15" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="13" t="n">
-        <v>375</v>
-      </c>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="15" t="n"/>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="13" t="n">
-        <v>675</v>
-      </c>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="15" t="n"/>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="13" t="n">
-        <v>-675</v>
-      </c>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
+      <c r="B24" s="17" t="n"/>
+      <c r="C24" s="15" t="n"/>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1690,13 +1675,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1707,6 +1692,7 @@
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" ht="92" customHeight="1">
       <c r="A2" s="25" t="n"/>
       <c r="B2" s="25" t="n"/>
@@ -1746,7 +1732,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>15.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1762,6 +1748,13 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
@@ -1769,7 +1762,9 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1797,178 +1792,154 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
-      <c r="F16" s="17" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="15" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="n"/>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="15" t="n"/>
+      <c r="F17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="15" t="n"/>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="15" t="n"/>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n"/>
-      <c r="C20" s="13" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="15" t="n"/>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="C21" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
+      <c r="B21" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="15" t="n"/>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="13" t="n">
-        <v>36</v>
-      </c>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="15" t="n"/>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="13" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
+      <c r="B24" s="17" t="n"/>
+      <c r="C24" s="15" t="n"/>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="13" t="n">
-        <v>400</v>
-      </c>
-      <c r="C25" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
+      <c r="B25" s="15" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C25" s="15" t="n"/>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="15" t="n"/>
+      <c r="F25" s="15" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="14" t="n"/>
-      <c r="C26" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="15" t="n"/>
+      <c r="D26" s="15" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="15" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="13" t="n">
-        <v>360</v>
-      </c>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="15" t="n"/>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n"/>
+      <c r="F27" s="15" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="15" t="n"/>
-      <c r="C28" s="13" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
-      <c r="F28" s="13" t="n"/>
+      <c r="B28" s="17" t="n"/>
+      <c r="C28" s="15" t="n"/>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n"/>
+      <c r="F28" s="15" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="13" t="inlineStr">
+      <c r="B29" s="15" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C29" s="16" t="n"/>
-      <c r="D29" s="16" t="n"/>
-      <c r="E29" s="16" t="n"/>
-      <c r="F29" s="17" t="n"/>
+      <c r="C29" s="13" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="14" t="n"/>
+      <c r="F29" s="15" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="13" t="n"/>
-      <c r="F30" s="13" t="n"/>
+      <c r="B30" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C30" s="15" t="n"/>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="15" t="n"/>
+      <c r="F30" s="15" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="14" t="n"/>
-      <c r="C31" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="13" t="n"/>
-      <c r="F31" s="13" t="n"/>
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="15" t="n"/>
+      <c r="D31" s="15" t="n"/>
+      <c r="E31" s="15" t="n"/>
+      <c r="F31" s="15" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="14" t="n"/>
-      <c r="C32" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="13" t="n"/>
-      <c r="F32" s="13" t="n"/>
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="15" t="n"/>
+      <c r="D32" s="15" t="n"/>
+      <c r="E32" s="15" t="n"/>
+      <c r="F32" s="15" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="15" t="n"/>
-      <c r="C33" s="13" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="13" t="n"/>
-      <c r="F33" s="13" t="n"/>
+      <c r="B33" s="17" t="n"/>
+      <c r="C33" s="15" t="n"/>
+      <c r="D33" s="15" t="n"/>
+      <c r="E33" s="15" t="n"/>
+      <c r="F33" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2003,13 +1974,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -2020,6 +1991,7 @@
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" ht="92" customHeight="1">
       <c r="A2" s="25" t="n"/>
       <c r="B2" s="25" t="n"/>
@@ -2059,7 +2031,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>15.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -2075,6 +2047,13 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
@@ -2089,7 +2068,8 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="14"/>
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -2117,140 +2097,122 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
-      <c r="F16" s="17" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="15" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="C17" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="n"/>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="15" t="n"/>
+      <c r="F17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="15" t="n"/>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="13" t="n">
-        <v>36</v>
-      </c>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="13" t="n"/>
-      <c r="F19" s="13" t="n"/>
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="15" t="n"/>
+      <c r="D19" s="15" t="n"/>
+      <c r="E19" s="15" t="n"/>
+      <c r="F19" s="15" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n"/>
-      <c r="C20" s="13" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="15" t="n"/>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="13" t="n">
-        <v>400</v>
-      </c>
-      <c r="C21" s="13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
+      <c r="B21" s="15" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="15" t="n"/>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="13" t="n">
-        <v>360</v>
-      </c>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="15" t="n"/>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="13" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
+      <c r="B24" s="17" t="n"/>
+      <c r="C24" s="15" t="n"/>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="13" t="inlineStr">
+      <c r="B25" s="15" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C25" s="16" t="n"/>
-      <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n"/>
-      <c r="F25" s="17" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="14" t="n"/>
+      <c r="F25" s="15" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C26" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
+      <c r="B26" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C26" s="15" t="n"/>
+      <c r="D26" s="15" t="n"/>
+      <c r="E26" s="15" t="n"/>
+      <c r="F26" s="15" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="14" t="n"/>
-      <c r="C27" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="15" t="n"/>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n"/>
+      <c r="F27" s="15" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="14" t="n"/>
-      <c r="C28" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
-      <c r="F28" s="13" t="n"/>
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="15" t="n"/>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n"/>
+      <c r="F28" s="15" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="15" t="n"/>
-      <c r="C29" s="13" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="13" t="n"/>
-      <c r="F29" s="13" t="n"/>
+      <c r="B29" s="17" t="n"/>
+      <c r="C29" s="15" t="n"/>
+      <c r="D29" s="15" t="n"/>
+      <c r="E29" s="15" t="n"/>
+      <c r="F29" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2284,13 +2246,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -2301,6 +2263,7 @@
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" ht="92" customHeight="1">
       <c r="A2" s="25" t="n"/>
       <c r="B2" s="25" t="n"/>
@@ -2340,7 +2303,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>15.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -2356,6 +2319,13 @@
         </is>
       </c>
     </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
@@ -2363,7 +2333,9 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -2391,157 +2363,145 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="13" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>Ω</t>
         </is>
       </c>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
-      <c r="F16" s="17" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="15" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="C17" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
-      <c r="F17" s="13" t="n"/>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="n"/>
+      <c r="D17" s="15" t="n"/>
+      <c r="E17" s="15" t="n"/>
+      <c r="F17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="15" t="n"/>
-      <c r="C18" s="13" t="n">
-        <v>180</v>
-      </c>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="13" t="n"/>
-      <c r="F18" s="13" t="n"/>
+      <c r="B18" s="17" t="n"/>
+      <c r="C18" s="15" t="n"/>
+      <c r="D18" s="15" t="n"/>
+      <c r="E18" s="15" t="n"/>
+      <c r="F18" s="15" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="13" t="inlineStr">
+      <c r="B19" s="15" t="inlineStr">
         <is>
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C19" s="16" t="n"/>
-      <c r="D19" s="16" t="n"/>
-      <c r="E19" s="16" t="n"/>
-      <c r="F19" s="17" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="14" t="n"/>
+      <c r="F19" s="15" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" s="13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="13" t="n"/>
-      <c r="F20" s="13" t="n"/>
+      <c r="B20" s="15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C20" s="15" t="n"/>
+      <c r="D20" s="15" t="n"/>
+      <c r="E20" s="15" t="n"/>
+      <c r="F20" s="15" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="n"/>
-      <c r="C21" s="13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="13" t="n"/>
-      <c r="F21" s="13" t="n"/>
+      <c r="B21" s="17" t="n"/>
+      <c r="C21" s="15" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="13" t="n"/>
-      <c r="F22" s="13" t="n"/>
+      <c r="B22" s="15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C22" s="15" t="n"/>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="15" t="n"/>
-      <c r="C23" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="13" t="n"/>
+      <c r="B23" s="17" t="n"/>
+      <c r="C23" s="15" t="n"/>
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="C24" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
-      <c r="F24" s="13" t="n"/>
+      <c r="B24" s="15" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C24" s="15" t="n"/>
+      <c r="D24" s="15" t="n"/>
+      <c r="E24" s="15" t="n"/>
+      <c r="F24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="15" t="n"/>
-      <c r="C25" s="13" t="n">
-        <v>180</v>
-      </c>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
-      <c r="F25" s="13" t="n"/>
+      <c r="B25" s="17" t="n"/>
+      <c r="C25" s="15" t="n"/>
+      <c r="D25" s="15" t="n"/>
+      <c r="E25" s="15" t="n"/>
+      <c r="F25" s="15" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="inlineStr">
+      <c r="B26" s="15" t="inlineStr">
         <is>
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C26" s="16" t="n"/>
-      <c r="D26" s="16" t="n"/>
-      <c r="E26" s="16" t="n"/>
-      <c r="F26" s="17" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="14" t="n"/>
+      <c r="F26" s="15" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="C27" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
-      <c r="F27" s="13" t="n"/>
+      <c r="B27" s="15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C27" s="15" t="n"/>
+      <c r="D27" s="15" t="n"/>
+      <c r="E27" s="15" t="n"/>
+      <c r="F27" s="15" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="15" t="n"/>
-      <c r="C28" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
-      <c r="F28" s="13" t="n"/>
+      <c r="B28" s="17" t="n"/>
+      <c r="C28" s="15" t="n"/>
+      <c r="D28" s="15" t="n"/>
+      <c r="E28" s="15" t="n"/>
+      <c r="F28" s="15" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="C29" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D29" s="13" t="n"/>
-      <c r="E29" s="13" t="n"/>
-      <c r="F29" s="13" t="n"/>
+      <c r="B29" s="15" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C29" s="15" t="n"/>
+      <c r="D29" s="15" t="n"/>
+      <c r="E29" s="15" t="n"/>
+      <c r="F29" s="15" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="15" t="n"/>
-      <c r="C30" s="13" t="n">
-        <v>180</v>
-      </c>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="13" t="n"/>
-      <c r="F30" s="13" t="n"/>
+      <c r="B30" s="17" t="n"/>
+      <c r="C30" s="15" t="n"/>
+      <c r="D30" s="15" t="n"/>
+      <c r="E30" s="15" t="n"/>
+      <c r="F30" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2585,7 +2545,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -869,7 +869,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>15.04.2023</t>
+          <t>17.04.2023</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>15.04.2023</t>
+          <t>17.04.2023</t>
         </is>
       </c>
       <c r="D11" s="13" t="n"/>
@@ -1137,7 +1137,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>15.04.2023</t>
+          <t>17.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1505,7 +1505,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>15.04.2023</t>
+          <t>17.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -1732,7 +1732,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>15.04.2023</t>
+          <t>17.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -2031,7 +2031,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>15.04.2023</t>
+          <t>17.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">
@@ -2303,7 +2303,7 @@
       <c r="B4" s="25" t="n"/>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>15.04.2023</t>
+          <t>17.04.2023</t>
         </is>
       </c>
       <c r="D4" s="28" t="inlineStr">

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6285" yWindow="2505" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Swiadectwo" sheetId="1" state="visible" r:id="rId1"/>
@@ -56,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -68,30 +68,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -128,12 +104,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -141,11 +113,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -157,67 +129,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -262,43 +173,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -319,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -353,46 +248,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,13 +828,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="1" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="13.7109375" customWidth="1" min="3" max="3"/>
-    <col width="30.5703125" customWidth="1" min="4" max="4"/>
-    <col width="20.85546875" customWidth="1" min="5" max="5"/>
+    <col width="13.6640625" customWidth="1" min="3" max="3"/>
+    <col width="30.5546875" customWidth="1" min="4" max="4"/>
+    <col width="20.88671875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="2" ht="90" customHeight="1">
@@ -971,8 +848,8 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="14" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="17" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
       <c r="B3" s="9" t="inlineStr">
@@ -980,9 +857,9 @@
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="14" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="17" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="B4" s="8" t="inlineStr">
@@ -992,12 +869,12 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>27.06.2023</t>
+          <t>2023-07-27</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
+          <t>Nr świadectwa: 9999/07/2023</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1007,10 +884,10 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="B5" s="17" t="n"/>
-      <c r="C5" s="17" t="n"/>
-      <c r="D5" s="17" t="n"/>
-      <c r="E5" s="17" t="n"/>
+      <c r="B5" s="15" t="n"/>
+      <c r="C5" s="15" t="n"/>
+      <c r="D5" s="15" t="n"/>
+      <c r="E5" s="15" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="B6" s="2" t="n"/>
@@ -1028,8 +905,8 @@
           <t xml:space="preserve">Multimetr [MODEL], nr </t>
         </is>
       </c>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="14" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="17" t="n"/>
     </row>
     <row r="8" ht="45.75" customHeight="1">
       <c r="B8" s="11" t="inlineStr">
@@ -1044,8 +921,8 @@
 00-034 Warszawa</t>
         </is>
       </c>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="14" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="17" t="n"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
       <c r="B9" s="11" t="inlineStr">
@@ -1059,8 +936,8 @@
           <t>Procedura pomiarowa PW005 wydanie 2</t>
         </is>
       </c>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="14" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="17" t="n"/>
     </row>
     <row r="10" ht="48" customHeight="1">
       <c r="B10" s="11" t="inlineStr">
@@ -1075,8 +952,8 @@
 Wilgotność   (42 ÷ 47) %</t>
         </is>
       </c>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="14" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="17" t="n"/>
     </row>
     <row r="11" ht="37.5" customHeight="1">
       <c r="B11" s="11" t="inlineStr">
@@ -1087,11 +964,11 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="14" t="n"/>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="17" t="n"/>
     </row>
     <row r="12" ht="79.5" customHeight="1">
       <c r="B12" s="11" t="inlineStr">
@@ -1105,8 +982,8 @@
           <t>Wyniki wzorcowania miernika zostały odniesione do wzorców państwowych przy wykorzystaniu multimetru wzorcowego: ...</t>
         </is>
       </c>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="14" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="17" t="n"/>
     </row>
     <row r="13" ht="108.75" customHeight="1">
       <c r="B13" s="11" t="inlineStr">
@@ -1120,8 +997,8 @@
           <t>Niepewność pomiaru została określona zgodnie z dokumentem EA-4/02 M:2021. Podane wartości niepewności stanowią niepewności rozszerzone przy prawdopodobieństwie rozszerzenia ok. 95 % i współczynniku rozszerzenia k = 2</t>
         </is>
       </c>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="14" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="17" t="n"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
       <c r="B14" s="11" t="inlineStr">
@@ -1135,8 +1012,8 @@
           <t>Podano na kolejnych stronach niniejszego świadectwa</t>
         </is>
       </c>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="14" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="17" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="10" t="inlineStr">
@@ -1144,27 +1021,27 @@
           <t xml:space="preserve">                                               Robert Greń</t>
         </is>
       </c>
-      <c r="C15" s="19" t="n"/>
-      <c r="D15" s="19" t="n"/>
-      <c r="E15" s="20" t="n"/>
+      <c r="C15" s="18" t="n"/>
+      <c r="D15" s="18" t="n"/>
+      <c r="E15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="28" t="n"/>
-      <c r="E16" s="29" t="n"/>
+      <c r="B16" s="20" t="n"/>
+      <c r="E16" s="21" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="28" t="n"/>
-      <c r="E17" s="29" t="n"/>
+      <c r="B17" s="20" t="n"/>
+      <c r="E17" s="21" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="28" t="n"/>
-      <c r="E18" s="29" t="n"/>
+      <c r="B18" s="20" t="n"/>
+      <c r="E18" s="21" t="n"/>
     </row>
     <row r="19" ht="21" customHeight="1">
-      <c r="B19" s="30" t="n"/>
-      <c r="C19" s="31" t="n"/>
-      <c r="D19" s="31" t="n"/>
-      <c r="E19" s="32" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="23" t="n"/>
+      <c r="D19" s="23" t="n"/>
+      <c r="E19" s="24" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1203,13 +1080,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1222,9 +1099,9 @@
   <sheetData>
     <row r="1"/>
     <row r="2" ht="92" customHeight="1">
-      <c r="A2" s="33" t="n"/>
-      <c r="B2" s="33" t="n"/>
-      <c r="C2" s="34" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -1233,44 +1110,44 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n"/>
-      <c r="F2" s="33" t="n"/>
-      <c r="G2" s="33" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="33" t="n"/>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>Data wydania:</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n"/>
-      <c r="C4" s="36" t="inlineStr">
-        <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="36" t="inlineStr">
-        <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/07/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Strona 2/6</t>
         </is>
@@ -1344,450 +1221,191 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>mV</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="inlineStr">
-        <is>
-          <t>4.9978</t>
-        </is>
-      </c>
-      <c r="D17" s="15" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E17" s="15" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="F17" s="15" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
+      <c r="B17" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="inlineStr">
-        <is>
-          <t>24.9967</t>
-        </is>
-      </c>
-      <c r="D18" s="15" t="inlineStr">
-        <is>
-          <t>24.99</t>
-        </is>
-      </c>
-      <c r="E18" s="15" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="F18" s="15" t="inlineStr">
-        <is>
-          <t>0.0722</t>
-        </is>
-      </c>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="inlineStr">
-        <is>
-          <t>44.9941</t>
-        </is>
-      </c>
-      <c r="D19" s="15" t="inlineStr">
-        <is>
-          <t>44.99</t>
-        </is>
-      </c>
-      <c r="E19" s="15" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="F19" s="15" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="inlineStr">
-        <is>
-          <t>-44.9909</t>
-        </is>
-      </c>
-      <c r="D20" s="15" t="inlineStr">
-        <is>
-          <t>-45.00</t>
-        </is>
-      </c>
-      <c r="E20" s="15" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="F20" s="15" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C21" s="15" t="inlineStr">
-        <is>
-          <t>49.993</t>
-        </is>
-      </c>
-      <c r="D21" s="15" t="inlineStr">
-        <is>
-          <t>49.98</t>
-        </is>
-      </c>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
-      </c>
-      <c r="F21" s="15" t="inlineStr">
-        <is>
-          <t>0.1443</t>
-        </is>
-      </c>
+      <c r="B21" s="13" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="17" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="15" t="inlineStr">
-        <is>
-          <t>249.9951</t>
-        </is>
-      </c>
-      <c r="D22" s="15" t="inlineStr">
-        <is>
-          <t>250.0</t>
-        </is>
-      </c>
-      <c r="E22" s="15" t="inlineStr">
-        <is>
-          <t>-0.0049</t>
-        </is>
-      </c>
-      <c r="F22" s="15" t="inlineStr">
-        <is>
-          <t>0.7217</t>
-        </is>
-      </c>
+      <c r="B22" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="inlineStr">
-        <is>
-          <t>449.9913</t>
-        </is>
-      </c>
-      <c r="D23" s="15" t="inlineStr">
-        <is>
-          <t>450.0</t>
-        </is>
-      </c>
-      <c r="E23" s="15" t="inlineStr">
-        <is>
-          <t>-0.0087</t>
-        </is>
-      </c>
-      <c r="F23" s="15" t="inlineStr">
-        <is>
-          <t>1.299</t>
-        </is>
-      </c>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="n"/>
-      <c r="C24" s="15" t="inlineStr">
-        <is>
-          <t>-449.9773</t>
-        </is>
-      </c>
-      <c r="D24" s="15" t="inlineStr">
-        <is>
-          <t>-450.0</t>
-        </is>
-      </c>
-      <c r="E24" s="15" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="F24" s="15" t="inlineStr">
-        <is>
-          <t>1.299</t>
-        </is>
-      </c>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="15" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
+      <c r="B25" s="15" t="n"/>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
       <c r="E25" s="13" t="n"/>
-      <c r="F25" s="14" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C26" s="15" t="inlineStr">
-        <is>
-          <t>0.4999899</t>
-        </is>
-      </c>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
+      <c r="B26" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="15" t="inlineStr">
-        <is>
-          <t>2.4999</t>
-        </is>
-      </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="inlineStr">
-        <is>
-          <t>4.4999</t>
-        </is>
-      </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
-      </c>
+      <c r="B28" s="14" t="n"/>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="inlineStr">
-        <is>
-          <t>-4.499721</t>
-        </is>
-      </c>
-      <c r="D29" s="15" t="inlineStr">
-        <is>
-          <t>-4.500</t>
-        </is>
-      </c>
-      <c r="E29" s="15" t="inlineStr">
-        <is>
-          <t>0.000279</t>
-        </is>
-      </c>
-      <c r="F29" s="15" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
-      </c>
+      <c r="B29" s="15" t="n"/>
+      <c r="C29" s="13" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C30" s="15" t="inlineStr">
-        <is>
-          <t>4.9999</t>
-        </is>
-      </c>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
+      <c r="B30" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="15" t="inlineStr">
-        <is>
-          <t>25.0585</t>
-        </is>
-      </c>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="13" t="n"/>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="15" t="inlineStr">
-        <is>
-          <t>44.932</t>
-        </is>
-      </c>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
+      <c r="B32" s="14" t="n"/>
+      <c r="C32" s="13" t="n"/>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="13" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="15" t="inlineStr">
-        <is>
-          <t>-44.9373</t>
-        </is>
-      </c>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
+      <c r="B33" s="15" t="n"/>
+      <c r="C33" s="13" t="n"/>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="13" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C34" s="15" t="inlineStr">
-        <is>
-          <t>49.9128</t>
-        </is>
-      </c>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n"/>
-      <c r="F34" s="15" t="inlineStr">
-        <is>
-          <t>0.1441</t>
-        </is>
-      </c>
+      <c r="B34" s="13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="13" t="n"/>
+      <c r="D34" s="13" t="n"/>
+      <c r="E34" s="13" t="n"/>
+      <c r="F34" s="13" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="15" t="inlineStr">
-        <is>
-          <t>250.0109</t>
-        </is>
-      </c>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="inlineStr">
-        <is>
-          <t>0.7217</t>
-        </is>
-      </c>
+      <c r="B35" s="14" t="n"/>
+      <c r="C35" s="13" t="n"/>
+      <c r="D35" s="13" t="n"/>
+      <c r="E35" s="13" t="n"/>
+      <c r="F35" s="13" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="16" t="n"/>
-      <c r="C36" s="15" t="n"/>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
+      <c r="B36" s="14" t="n"/>
+      <c r="C36" s="13" t="n"/>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="13" t="n"/>
+      <c r="F36" s="13" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="17" t="n"/>
-      <c r="C37" s="15" t="n"/>
-      <c r="D37" s="15" t="n"/>
-      <c r="E37" s="15" t="n"/>
-      <c r="F37" s="15" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C38" s="15" t="n"/>
-      <c r="D38" s="15" t="n"/>
-      <c r="E38" s="15" t="n"/>
-      <c r="F38" s="15" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="16" t="n"/>
-      <c r="C39" s="15" t="n"/>
-      <c r="D39" s="15" t="n"/>
-      <c r="E39" s="15" t="n"/>
-      <c r="F39" s="15" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="16" t="n"/>
-      <c r="C40" s="15" t="n"/>
-      <c r="D40" s="15" t="n"/>
-      <c r="E40" s="15" t="n"/>
-      <c r="F40" s="15" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="17" t="n"/>
-      <c r="C41" s="15" t="n"/>
-      <c r="D41" s="15" t="n"/>
-      <c r="E41" s="15" t="n"/>
-      <c r="F41" s="15" t="n"/>
+      <c r="B37" s="15" t="n"/>
+      <c r="C37" s="13" t="n"/>
+      <c r="D37" s="13" t="n"/>
+      <c r="E37" s="13" t="n"/>
+      <c r="F37" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B16:G16"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B21:B24"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B25:G25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -1808,13 +1426,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -1827,9 +1445,9 @@
   <sheetData>
     <row r="1"/>
     <row r="2" ht="92" customHeight="1">
-      <c r="A2" s="33" t="n"/>
-      <c r="B2" s="33" t="n"/>
-      <c r="C2" s="34" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -1838,44 +1456,44 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n"/>
-      <c r="F2" s="33" t="n"/>
-      <c r="G2" s="33" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="33" t="n"/>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>Data wydania:</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n"/>
-      <c r="C4" s="36" t="inlineStr">
-        <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="36" t="inlineStr">
-        <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/07/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Strona 3/6</t>
         </is>
@@ -1931,216 +1549,72 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
-        <is>
-          <t>mV</t>
-        </is>
-      </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="inlineStr">
-        <is>
-          <t>5.0052</t>
-        </is>
-      </c>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
+      <c r="B17" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="inlineStr">
-        <is>
-          <t>25.0083</t>
-        </is>
-      </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="inlineStr">
-        <is>
-          <t>0.0722</t>
-        </is>
-      </c>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="15" t="n"/>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="B19" s="15" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C20" s="15" t="n"/>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="B20" s="13" t="n">
+        <v>750</v>
+      </c>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="16" t="n"/>
-      <c r="C21" s="15" t="inlineStr">
-        <is>
-          <t>250.0483</t>
-        </is>
-      </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="inlineStr">
-        <is>
-          <t>0.7218</t>
-        </is>
-      </c>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="17" t="n"/>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="15" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="14" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="15" t="n"/>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="17" t="n"/>
-      <c r="C26" s="15" t="n"/>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C27" s="15" t="n"/>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="n"/>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="n"/>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C30" s="15" t="n"/>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="15" t="n"/>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="17" t="n"/>
-      <c r="C32" s="15" t="n"/>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C33" s="15" t="n"/>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="16" t="n"/>
-      <c r="C34" s="15" t="n"/>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n"/>
-      <c r="F34" s="15" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="17" t="n"/>
-      <c r="C35" s="15" t="n"/>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="n"/>
+      <c r="B22" s="15" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="8">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B23:G23"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -2161,13 +1635,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -2180,9 +1654,9 @@
   <sheetData>
     <row r="1"/>
     <row r="2" ht="92" customHeight="1">
-      <c r="A2" s="33" t="n"/>
-      <c r="B2" s="33" t="n"/>
-      <c r="C2" s="34" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -2191,44 +1665,44 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n"/>
-      <c r="F2" s="33" t="n"/>
-      <c r="G2" s="33" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="33" t="n"/>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>Data wydania:</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n"/>
-      <c r="C4" s="36" t="inlineStr">
-        <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="36" t="inlineStr">
-        <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/07/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Strona 4/6</t>
         </is>
@@ -2278,246 +1752,160 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
-        <is>
-          <t>uA</t>
-        </is>
-      </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="n"/>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
+      <c r="B17" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="n"/>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="n"/>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="n"/>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>mA</t>
-        </is>
+      <c r="B21" s="13" t="n">
+        <v>40</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
       <c r="E21" s="13" t="n"/>
-      <c r="F21" s="14" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="n"/>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="16" t="n"/>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="17" t="n"/>
-      <c r="C25" s="15" t="n"/>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
+      <c r="B25" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C26" s="15" t="n"/>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
+      <c r="B26" s="14" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="15" t="n"/>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="n"/>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="n"/>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
+      <c r="B29" s="13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="17" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C30" s="15" t="n"/>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
+      <c r="B30" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="15" t="n"/>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="13" t="n"/>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="15" t="n"/>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
+      <c r="B32" s="14" t="n"/>
+      <c r="C32" s="13" t="n"/>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="13" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="15" t="n"/>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C34" s="13" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="13" t="n"/>
-      <c r="F34" s="14" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C35" s="15" t="n"/>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="16" t="n"/>
-      <c r="C36" s="15" t="n"/>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="16" t="n"/>
-      <c r="C37" s="15" t="n"/>
-      <c r="D37" s="15" t="n"/>
-      <c r="E37" s="15" t="n"/>
-      <c r="F37" s="15" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="17" t="n"/>
-      <c r="C38" s="15" t="n"/>
-      <c r="D38" s="15" t="n"/>
-      <c r="E38" s="15" t="n"/>
-      <c r="F38" s="15" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C39" s="15" t="n"/>
-      <c r="D39" s="15" t="n"/>
-      <c r="E39" s="15" t="n"/>
-      <c r="F39" s="15" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="16" t="n"/>
-      <c r="C40" s="15" t="n"/>
-      <c r="D40" s="15" t="n"/>
-      <c r="E40" s="15" t="n"/>
-      <c r="F40" s="15" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="16" t="n"/>
-      <c r="C41" s="15" t="n"/>
-      <c r="D41" s="15" t="n"/>
-      <c r="E41" s="15" t="n"/>
-      <c r="F41" s="15" t="n"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="17" t="n"/>
-      <c r="C42" s="15" t="n"/>
-      <c r="D42" s="15" t="n"/>
-      <c r="E42" s="15" t="n"/>
-      <c r="F42" s="15" t="n"/>
+      <c r="B33" s="15" t="n"/>
+      <c r="C33" s="13" t="n"/>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B29:F29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B26:B29"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -2538,13 +1926,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -2557,9 +1945,9 @@
   <sheetData>
     <row r="1"/>
     <row r="2" ht="92" customHeight="1">
-      <c r="A2" s="33" t="n"/>
-      <c r="B2" s="33" t="n"/>
-      <c r="C2" s="34" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -2568,44 +1956,44 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n"/>
-      <c r="F2" s="33" t="n"/>
-      <c r="G2" s="33" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="33" t="n"/>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>Data wydania:</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n"/>
-      <c r="C4" s="36" t="inlineStr">
-        <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="36" t="inlineStr">
-        <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/07/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Strona 5/6</t>
         </is>
@@ -2661,204 +2049,108 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
-        <is>
-          <t>uA</t>
-        </is>
-      </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="n"/>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
+      <c r="B17" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="n"/>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="15" t="n"/>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="B19" s="15" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="inlineStr">
-        <is>
-          <t>mA</t>
-        </is>
+      <c r="B20" s="13" t="n">
+        <v>400</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
       <c r="E20" s="13" t="n"/>
-      <c r="F20" s="14" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C21" s="15" t="n"/>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="B22" s="15" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="17" t="n"/>
-      <c r="C23" s="15" t="n"/>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="B23" s="13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="17" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="B24" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="15" t="n"/>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="17" t="n"/>
-      <c r="C26" s="15" t="n"/>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C27" s="15" t="n"/>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="n"/>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="n"/>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C30" s="13" t="n"/>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="13" t="n"/>
-      <c r="F30" s="14" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C31" s="15" t="n"/>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="15" t="n"/>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="15" t="n"/>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C34" s="15" t="n"/>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n"/>
-      <c r="F34" s="15" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="15" t="n"/>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="17" t="n"/>
-      <c r="C36" s="15" t="n"/>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
+      <c r="B26" s="15" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="10">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B31:B33"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:G20"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -2879,13 +2171,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
@@ -2898,9 +2190,9 @@
   <sheetData>
     <row r="1"/>
     <row r="2" ht="92" customHeight="1">
-      <c r="A2" s="33" t="n"/>
-      <c r="B2" s="33" t="n"/>
-      <c r="C2" s="34" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -2909,44 +2201,44 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n"/>
-      <c r="F2" s="33" t="n"/>
-      <c r="G2" s="33" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="33" t="n"/>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>Data wydania:</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n"/>
-      <c r="C4" s="36" t="inlineStr">
-        <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="36" t="inlineStr">
-        <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/07/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Strona 6/6</t>
         </is>
@@ -2996,234 +2288,150 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="21" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>Ω</t>
         </is>
       </c>
-      <c r="C16" s="19" t="n"/>
-      <c r="D16" s="19" t="n"/>
-      <c r="E16" s="20" t="n"/>
-      <c r="F16" s="21" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="23" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C17" s="23" t="n"/>
-      <c r="D17" s="23" t="n"/>
-      <c r="E17" s="23" t="n"/>
-      <c r="F17" s="23" t="n"/>
+      <c r="B17" s="13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="24" t="n"/>
-      <c r="C18" s="23" t="n"/>
-      <c r="D18" s="23" t="n"/>
-      <c r="E18" s="23" t="n"/>
-      <c r="F18" s="23" t="n"/>
+      <c r="B18" s="15" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="23" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C19" s="25" t="n"/>
-      <c r="D19" s="25" t="n"/>
-      <c r="E19" s="25" t="n"/>
-      <c r="F19" s="23" t="n"/>
+      <c r="B19" s="13" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="17" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="24" t="n"/>
-      <c r="C20" s="23" t="n"/>
-      <c r="D20" s="23" t="n"/>
-      <c r="E20" s="23" t="n"/>
-      <c r="F20" s="23" t="n"/>
+      <c r="B20" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="23" t="inlineStr">
-        <is>
-          <t>kΩ</t>
-        </is>
-      </c>
-      <c r="C21" s="26" t="n"/>
-      <c r="D21" s="26" t="n"/>
-      <c r="E21" s="26" t="n"/>
-      <c r="F21" s="27" t="n"/>
+      <c r="B21" s="15" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C22" s="23" t="n"/>
-      <c r="D22" s="23" t="n"/>
-      <c r="E22" s="23" t="n"/>
-      <c r="F22" s="23" t="n"/>
+      <c r="B22" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="24" t="n"/>
-      <c r="C23" s="23" t="n"/>
-      <c r="D23" s="23" t="n"/>
-      <c r="E23" s="23" t="n"/>
-      <c r="F23" s="23" t="n"/>
+      <c r="B23" s="15" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="23" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C24" s="23" t="n"/>
-      <c r="D24" s="23" t="n"/>
-      <c r="E24" s="23" t="n"/>
-      <c r="F24" s="23" t="n"/>
+      <c r="B24" s="13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="24" t="n"/>
-      <c r="C25" s="23" t="n"/>
-      <c r="D25" s="23" t="n"/>
-      <c r="E25" s="23" t="n"/>
-      <c r="F25" s="23" t="n"/>
+      <c r="B25" s="15" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="23" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C26" s="25" t="n"/>
-      <c r="D26" s="25" t="n"/>
-      <c r="E26" s="25" t="n"/>
-      <c r="F26" s="23" t="n"/>
+      <c r="B26" s="13" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="17" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="24" t="n"/>
-      <c r="C27" s="25" t="n"/>
-      <c r="D27" s="23" t="n"/>
-      <c r="E27" s="23" t="n"/>
-      <c r="F27" s="23" t="n"/>
+      <c r="B27" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="23" t="inlineStr">
-        <is>
-          <t>MΩ</t>
-        </is>
-      </c>
-      <c r="C28" s="26" t="n"/>
-      <c r="D28" s="26" t="n"/>
-      <c r="E28" s="26" t="n"/>
-      <c r="F28" s="27" t="n"/>
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C29" s="23" t="n"/>
-      <c r="D29" s="23" t="n"/>
-      <c r="E29" s="23" t="n"/>
-      <c r="F29" s="23" t="n"/>
+      <c r="B29" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="C29" s="13" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="24" t="n"/>
-      <c r="C30" s="23" t="n"/>
-      <c r="D30" s="23" t="n"/>
-      <c r="E30" s="23" t="n"/>
-      <c r="F30" s="23" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="23" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C31" s="23" t="n"/>
-      <c r="D31" s="23" t="n"/>
-      <c r="E31" s="23" t="n"/>
-      <c r="F31" s="23" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="24" t="n"/>
-      <c r="C32" s="23" t="n"/>
-      <c r="D32" s="23" t="n"/>
-      <c r="E32" s="23" t="n"/>
-      <c r="F32" s="23" t="n"/>
-    </row>
-    <row r="33">
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>-44.9373</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>49.9128</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.1441</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>250.0109</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.7217</t>
-        </is>
-      </c>
-    </row>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
+      <c r="B30" s="15" t="n"/>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B26:F26"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -3250,7 +2458,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
+++ b/Zapis_Swiadectw_Wzorcowania/nazwa_pliku.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6285" yWindow="2505" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5220" yWindow="3330" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Swiadectwo" sheetId="1" state="visible" r:id="rId1"/>
@@ -56,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -68,30 +68,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -128,12 +104,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -141,11 +113,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -157,67 +129,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -262,43 +173,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -319,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -353,46 +248,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,8 +848,8 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="14" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="17" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
       <c r="B3" s="9" t="inlineStr">
@@ -980,9 +857,9 @@
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="14" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="17" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="B4" s="8" t="inlineStr">
@@ -992,12 +869,12 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>27.06.2023</t>
+          <t>11.09.2023</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
+          <t>Nr świadectwa: 9999/09/2023</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1007,10 +884,10 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="B5" s="17" t="n"/>
-      <c r="C5" s="17" t="n"/>
-      <c r="D5" s="17" t="n"/>
-      <c r="E5" s="17" t="n"/>
+      <c r="B5" s="15" t="n"/>
+      <c r="C5" s="15" t="n"/>
+      <c r="D5" s="15" t="n"/>
+      <c r="E5" s="15" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="B6" s="2" t="n"/>
@@ -1028,8 +905,8 @@
           <t xml:space="preserve">Multimetr [MODEL], nr </t>
         </is>
       </c>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="14" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="17" t="n"/>
     </row>
     <row r="8" ht="45.75" customHeight="1">
       <c r="B8" s="11" t="inlineStr">
@@ -1044,8 +921,8 @@
 00-034 Warszawa</t>
         </is>
       </c>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="14" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="17" t="n"/>
     </row>
     <row r="9" ht="37.5" customHeight="1">
       <c r="B9" s="11" t="inlineStr">
@@ -1059,8 +936,8 @@
           <t>Procedura pomiarowa PW005 wydanie 2</t>
         </is>
       </c>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="14" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="17" t="n"/>
     </row>
     <row r="10" ht="48" customHeight="1">
       <c r="B10" s="11" t="inlineStr">
@@ -1075,8 +952,8 @@
 Wilgotność   (42 ÷ 47) %</t>
         </is>
       </c>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="14" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="17" t="n"/>
     </row>
     <row r="11" ht="37.5" customHeight="1">
       <c r="B11" s="11" t="inlineStr">
@@ -1087,11 +964,11 @@
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="14" t="n"/>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="17" t="n"/>
     </row>
     <row r="12" ht="79.5" customHeight="1">
       <c r="B12" s="11" t="inlineStr">
@@ -1105,8 +982,8 @@
           <t>Wyniki wzorcowania miernika zostały odniesione do wzorców państwowych przy wykorzystaniu multimetru wzorcowego: ...</t>
         </is>
       </c>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="14" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="17" t="n"/>
     </row>
     <row r="13" ht="108.75" customHeight="1">
       <c r="B13" s="11" t="inlineStr">
@@ -1120,14 +997,14 @@
           <t>Niepewność pomiaru została określona zgodnie z dokumentem EA-4/02 M:2021. Podane wartości niepewności stanowią niepewności rozszerzone przy prawdopodobieństwie rozszerzenia ok. 95 % i współczynniku rozszerzenia k = 2</t>
         </is>
       </c>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="14" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="17" t="n"/>
     </row>
     <row r="14" ht="37.5" customHeight="1">
       <c r="B14" s="11" t="inlineStr">
         <is>
           <t>WYNIKI 
-WZOROCWANIA</t>
+WZORCOWANIA</t>
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr">
@@ -1135,8 +1012,8 @@
           <t>Podano na kolejnych stronach niniejszego świadectwa</t>
         </is>
       </c>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="14" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="17" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="10" t="inlineStr">
@@ -1144,27 +1021,27 @@
           <t xml:space="preserve">                                               Robert Greń</t>
         </is>
       </c>
-      <c r="C15" s="19" t="n"/>
-      <c r="D15" s="19" t="n"/>
-      <c r="E15" s="20" t="n"/>
+      <c r="C15" s="18" t="n"/>
+      <c r="D15" s="18" t="n"/>
+      <c r="E15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="28" t="n"/>
-      <c r="E16" s="29" t="n"/>
+      <c r="B16" s="20" t="n"/>
+      <c r="E16" s="21" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="28" t="n"/>
-      <c r="E17" s="29" t="n"/>
+      <c r="B17" s="20" t="n"/>
+      <c r="E17" s="21" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="28" t="n"/>
-      <c r="E18" s="29" t="n"/>
+      <c r="B18" s="20" t="n"/>
+      <c r="E18" s="21" t="n"/>
     </row>
     <row r="19" ht="21" customHeight="1">
-      <c r="B19" s="30" t="n"/>
-      <c r="C19" s="31" t="n"/>
-      <c r="D19" s="31" t="n"/>
-      <c r="E19" s="32" t="n"/>
+      <c r="B19" s="22" t="n"/>
+      <c r="C19" s="23" t="n"/>
+      <c r="D19" s="23" t="n"/>
+      <c r="E19" s="24" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1203,9 +1080,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1222,9 +1099,9 @@
   <sheetData>
     <row r="1"/>
     <row r="2" ht="92" customHeight="1">
-      <c r="A2" s="33" t="n"/>
-      <c r="B2" s="33" t="n"/>
-      <c r="C2" s="34" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -1233,44 +1110,44 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n"/>
-      <c r="F2" s="33" t="n"/>
-      <c r="G2" s="33" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="33" t="n"/>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>Data wydania:</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n"/>
-      <c r="C4" s="36" t="inlineStr">
-        <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="36" t="inlineStr">
-        <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/09/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Strona 2/6</t>
         </is>
@@ -1316,7 +1193,7 @@
     </row>
     <row r="13"/>
     <row r="14"/>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1344,450 +1221,191 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>mV</t>
         </is>
       </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="inlineStr">
-        <is>
-          <t>4.9978</t>
-        </is>
-      </c>
-      <c r="D17" s="15" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E17" s="15" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="F17" s="15" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
+      <c r="B17" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="inlineStr">
-        <is>
-          <t>24.9967</t>
-        </is>
-      </c>
-      <c r="D18" s="15" t="inlineStr">
-        <is>
-          <t>24.99</t>
-        </is>
-      </c>
-      <c r="E18" s="15" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="F18" s="15" t="inlineStr">
-        <is>
-          <t>0.0722</t>
-        </is>
-      </c>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="inlineStr">
-        <is>
-          <t>44.9941</t>
-        </is>
-      </c>
-      <c r="D19" s="15" t="inlineStr">
-        <is>
-          <t>44.99</t>
-        </is>
-      </c>
-      <c r="E19" s="15" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="F19" s="15" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="inlineStr">
-        <is>
-          <t>-44.9909</t>
-        </is>
-      </c>
-      <c r="D20" s="15" t="inlineStr">
-        <is>
-          <t>-45.00</t>
-        </is>
-      </c>
-      <c r="E20" s="15" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="F20" s="15" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C21" s="15" t="inlineStr">
-        <is>
-          <t>49.993</t>
-        </is>
-      </c>
-      <c r="D21" s="15" t="inlineStr">
-        <is>
-          <t>49.98</t>
-        </is>
-      </c>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
-      </c>
-      <c r="F21" s="15" t="inlineStr">
-        <is>
-          <t>0.1443</t>
-        </is>
-      </c>
+      <c r="B21" s="13" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="17" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="15" t="inlineStr">
-        <is>
-          <t>249.9951</t>
-        </is>
-      </c>
-      <c r="D22" s="15" t="inlineStr">
-        <is>
-          <t>250.0</t>
-        </is>
-      </c>
-      <c r="E22" s="15" t="inlineStr">
-        <is>
-          <t>-0.0049</t>
-        </is>
-      </c>
-      <c r="F22" s="15" t="inlineStr">
-        <is>
-          <t>0.7217</t>
-        </is>
-      </c>
+      <c r="B22" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="inlineStr">
-        <is>
-          <t>449.9913</t>
-        </is>
-      </c>
-      <c r="D23" s="15" t="inlineStr">
-        <is>
-          <t>450.0</t>
-        </is>
-      </c>
-      <c r="E23" s="15" t="inlineStr">
-        <is>
-          <t>-0.0087</t>
-        </is>
-      </c>
-      <c r="F23" s="15" t="inlineStr">
-        <is>
-          <t>1.299</t>
-        </is>
-      </c>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="17" t="n"/>
-      <c r="C24" s="15" t="inlineStr">
-        <is>
-          <t>-449.9773</t>
-        </is>
-      </c>
-      <c r="D24" s="15" t="inlineStr">
-        <is>
-          <t>-450.0</t>
-        </is>
-      </c>
-      <c r="E24" s="15" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="F24" s="15" t="inlineStr">
-        <is>
-          <t>1.299</t>
-        </is>
-      </c>
+      <c r="B24" s="14" t="n"/>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="15" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
+      <c r="B25" s="15" t="n"/>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
       <c r="E25" s="13" t="n"/>
-      <c r="F25" s="14" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C26" s="15" t="inlineStr">
-        <is>
-          <t>0.4999899</t>
-        </is>
-      </c>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
+      <c r="B26" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="15" t="inlineStr">
-        <is>
-          <t>2.4999</t>
-        </is>
-      </c>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="inlineStr">
-        <is>
-          <t>4.4999</t>
-        </is>
-      </c>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
-      </c>
+      <c r="B28" s="14" t="n"/>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="inlineStr">
-        <is>
-          <t>-4.499721</t>
-        </is>
-      </c>
-      <c r="D29" s="15" t="inlineStr">
-        <is>
-          <t>-4.500</t>
-        </is>
-      </c>
-      <c r="E29" s="15" t="inlineStr">
-        <is>
-          <t>0.000279</t>
-        </is>
-      </c>
-      <c r="F29" s="15" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
-      </c>
+      <c r="B29" s="15" t="n"/>
+      <c r="C29" s="13" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C30" s="15" t="inlineStr">
-        <is>
-          <t>4.9999</t>
-        </is>
-      </c>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
+      <c r="B30" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="15" t="inlineStr">
-        <is>
-          <t>25.0585</t>
-        </is>
-      </c>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="13" t="n"/>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="15" t="inlineStr">
-        <is>
-          <t>44.932</t>
-        </is>
-      </c>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
+      <c r="B32" s="14" t="n"/>
+      <c r="C32" s="13" t="n"/>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="13" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="15" t="inlineStr">
-        <is>
-          <t>-44.9373</t>
-        </is>
-      </c>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
+      <c r="B33" s="15" t="n"/>
+      <c r="C33" s="13" t="n"/>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="13" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C34" s="15" t="inlineStr">
-        <is>
-          <t>49.9128</t>
-        </is>
-      </c>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n"/>
-      <c r="F34" s="15" t="inlineStr">
-        <is>
-          <t>0.1441</t>
-        </is>
-      </c>
+      <c r="B34" s="13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="13" t="n"/>
+      <c r="D34" s="13" t="n"/>
+      <c r="E34" s="13" t="n"/>
+      <c r="F34" s="13" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="15" t="inlineStr">
-        <is>
-          <t>250.0109</t>
-        </is>
-      </c>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="inlineStr">
-        <is>
-          <t>0.7217</t>
-        </is>
-      </c>
+      <c r="B35" s="14" t="n"/>
+      <c r="C35" s="13" t="n"/>
+      <c r="D35" s="13" t="n"/>
+      <c r="E35" s="13" t="n"/>
+      <c r="F35" s="13" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="16" t="n"/>
-      <c r="C36" s="15" t="n"/>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
+      <c r="B36" s="14" t="n"/>
+      <c r="C36" s="13" t="n"/>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="13" t="n"/>
+      <c r="F36" s="13" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="17" t="n"/>
-      <c r="C37" s="15" t="n"/>
-      <c r="D37" s="15" t="n"/>
-      <c r="E37" s="15" t="n"/>
-      <c r="F37" s="15" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C38" s="15" t="n"/>
-      <c r="D38" s="15" t="n"/>
-      <c r="E38" s="15" t="n"/>
-      <c r="F38" s="15" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="16" t="n"/>
-      <c r="C39" s="15" t="n"/>
-      <c r="D39" s="15" t="n"/>
-      <c r="E39" s="15" t="n"/>
-      <c r="F39" s="15" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="16" t="n"/>
-      <c r="C40" s="15" t="n"/>
-      <c r="D40" s="15" t="n"/>
-      <c r="E40" s="15" t="n"/>
-      <c r="F40" s="15" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="17" t="n"/>
-      <c r="C41" s="15" t="n"/>
-      <c r="D41" s="15" t="n"/>
-      <c r="E41" s="15" t="n"/>
-      <c r="F41" s="15" t="n"/>
+      <c r="B37" s="15" t="n"/>
+      <c r="C37" s="13" t="n"/>
+      <c r="D37" s="13" t="n"/>
+      <c r="E37" s="13" t="n"/>
+      <c r="F37" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B16:G16"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B34:B37"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B21:B24"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B25:G25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -1808,9 +1426,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1827,9 +1445,9 @@
   <sheetData>
     <row r="1"/>
     <row r="2" ht="92" customHeight="1">
-      <c r="A2" s="33" t="n"/>
-      <c r="B2" s="33" t="n"/>
-      <c r="C2" s="34" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -1838,44 +1456,44 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n"/>
-      <c r="F2" s="33" t="n"/>
-      <c r="G2" s="33" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="33" t="n"/>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>Data wydania:</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n"/>
-      <c r="C4" s="36" t="inlineStr">
-        <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="36" t="inlineStr">
-        <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/09/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Strona 3/6</t>
         </is>
@@ -1903,7 +1521,7 @@
       </c>
     </row>
     <row r="14"/>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1931,216 +1549,72 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
-        <is>
-          <t>mV</t>
-        </is>
-      </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="inlineStr">
-        <is>
-          <t>5.0052</t>
-        </is>
-      </c>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
+      <c r="B17" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="inlineStr">
-        <is>
-          <t>25.0083</t>
-        </is>
-      </c>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="inlineStr">
-        <is>
-          <t>0.0722</t>
-        </is>
-      </c>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="15" t="n"/>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="B19" s="15" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C20" s="15" t="n"/>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="B20" s="13" t="n">
+        <v>750</v>
+      </c>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="16" t="n"/>
-      <c r="C21" s="15" t="inlineStr">
-        <is>
-          <t>250.0483</t>
-        </is>
-      </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="inlineStr">
-        <is>
-          <t>0.7218</t>
-        </is>
-      </c>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="17" t="n"/>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="15" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
-      <c r="F23" s="14" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="15" t="n"/>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="17" t="n"/>
-      <c r="C26" s="15" t="n"/>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C27" s="15" t="n"/>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="n"/>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="n"/>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C30" s="15" t="n"/>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="15" t="n"/>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="17" t="n"/>
-      <c r="C32" s="15" t="n"/>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="15" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C33" s="15" t="n"/>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="16" t="n"/>
-      <c r="C34" s="15" t="n"/>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n"/>
-      <c r="F34" s="15" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="17" t="n"/>
-      <c r="C35" s="15" t="n"/>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="n"/>
+      <c r="B22" s="15" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="8">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B23:G23"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -2161,9 +1635,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2180,9 +1654,9 @@
   <sheetData>
     <row r="1"/>
     <row r="2" ht="92" customHeight="1">
-      <c r="A2" s="33" t="n"/>
-      <c r="B2" s="33" t="n"/>
-      <c r="C2" s="34" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -2191,44 +1665,44 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n"/>
-      <c r="F2" s="33" t="n"/>
-      <c r="G2" s="33" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="33" t="n"/>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>Data wydania:</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n"/>
-      <c r="C4" s="36" t="inlineStr">
-        <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="36" t="inlineStr">
-        <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/09/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Strona 4/6</t>
         </is>
@@ -2250,7 +1724,7 @@
     </row>
     <row r="13"/>
     <row r="14"/>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -2278,246 +1752,160 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
-        <is>
-          <t>uA</t>
-        </is>
-      </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="n"/>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
+      <c r="B17" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="n"/>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="15" t="n"/>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="17" t="n"/>
-      <c r="C20" s="15" t="n"/>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
+      <c r="B20" s="15" t="n"/>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>mA</t>
-        </is>
+      <c r="B21" s="13" t="n">
+        <v>40</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
       <c r="E21" s="13" t="n"/>
-      <c r="F21" s="14" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="15" t="n"/>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="16" t="n"/>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="17" t="n"/>
-      <c r="C25" s="15" t="n"/>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
+      <c r="B25" s="13" t="n">
+        <v>400</v>
+      </c>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C26" s="15" t="n"/>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
+      <c r="B26" s="14" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="15" t="n"/>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
+      <c r="B27" s="14" t="n"/>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="n"/>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="n"/>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
+      <c r="B29" s="13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="17" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C30" s="15" t="n"/>
-      <c r="D30" s="15" t="n"/>
-      <c r="E30" s="15" t="n"/>
-      <c r="F30" s="15" t="n"/>
+      <c r="B30" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="15" t="n"/>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="13" t="n"/>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="15" t="n"/>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
+      <c r="B32" s="14" t="n"/>
+      <c r="C32" s="13" t="n"/>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="13" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="15" t="n"/>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C34" s="13" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="13" t="n"/>
-      <c r="F34" s="14" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C35" s="15" t="n"/>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="16" t="n"/>
-      <c r="C36" s="15" t="n"/>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="16" t="n"/>
-      <c r="C37" s="15" t="n"/>
-      <c r="D37" s="15" t="n"/>
-      <c r="E37" s="15" t="n"/>
-      <c r="F37" s="15" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="17" t="n"/>
-      <c r="C38" s="15" t="n"/>
-      <c r="D38" s="15" t="n"/>
-      <c r="E38" s="15" t="n"/>
-      <c r="F38" s="15" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C39" s="15" t="n"/>
-      <c r="D39" s="15" t="n"/>
-      <c r="E39" s="15" t="n"/>
-      <c r="F39" s="15" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="16" t="n"/>
-      <c r="C40" s="15" t="n"/>
-      <c r="D40" s="15" t="n"/>
-      <c r="E40" s="15" t="n"/>
-      <c r="F40" s="15" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="16" t="n"/>
-      <c r="C41" s="15" t="n"/>
-      <c r="D41" s="15" t="n"/>
-      <c r="E41" s="15" t="n"/>
-      <c r="F41" s="15" t="n"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="17" t="n"/>
-      <c r="C42" s="15" t="n"/>
-      <c r="D42" s="15" t="n"/>
-      <c r="E42" s="15" t="n"/>
-      <c r="F42" s="15" t="n"/>
+      <c r="B33" s="15" t="n"/>
+      <c r="C33" s="13" t="n"/>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B29:F29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B26:B29"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -2538,9 +1926,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2557,9 +1945,9 @@
   <sheetData>
     <row r="1"/>
     <row r="2" ht="92" customHeight="1">
-      <c r="A2" s="33" t="n"/>
-      <c r="B2" s="33" t="n"/>
-      <c r="C2" s="34" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -2568,44 +1956,44 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n"/>
-      <c r="F2" s="33" t="n"/>
-      <c r="G2" s="33" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="33" t="n"/>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>Data wydania:</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n"/>
-      <c r="C4" s="36" t="inlineStr">
-        <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="36" t="inlineStr">
-        <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/09/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Strona 5/6</t>
         </is>
@@ -2633,7 +2021,7 @@
       </c>
     </row>
     <row r="14"/>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -2661,204 +2049,108 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="inlineStr">
-        <is>
-          <t>uA</t>
-        </is>
-      </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="14" t="n"/>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C17" s="15" t="n"/>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
+      <c r="B17" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="15" t="n"/>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
+      <c r="B18" s="14" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="15" t="n"/>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
+      <c r="B19" s="15" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="inlineStr">
-        <is>
-          <t>mA</t>
-        </is>
+      <c r="B20" s="13" t="n">
+        <v>400</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
       <c r="E20" s="13" t="n"/>
-      <c r="F20" s="14" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C21" s="15" t="n"/>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
+      <c r="B21" s="14" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="15" t="n"/>
-      <c r="F22" s="15" t="n"/>
+      <c r="B22" s="15" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="17" t="n"/>
-      <c r="C23" s="15" t="n"/>
-      <c r="D23" s="15" t="n"/>
-      <c r="E23" s="15" t="n"/>
-      <c r="F23" s="15" t="n"/>
+      <c r="B23" s="13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="17" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="15" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
+      <c r="B24" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="15" t="n"/>
-      <c r="D25" s="15" t="n"/>
-      <c r="E25" s="15" t="n"/>
-      <c r="F25" s="15" t="n"/>
+      <c r="B25" s="14" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="17" t="n"/>
-      <c r="C26" s="15" t="n"/>
-      <c r="D26" s="15" t="n"/>
-      <c r="E26" s="15" t="n"/>
-      <c r="F26" s="15" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="15" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C27" s="15" t="n"/>
-      <c r="D27" s="15" t="n"/>
-      <c r="E27" s="15" t="n"/>
-      <c r="F27" s="15" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="15" t="n"/>
-      <c r="D28" s="15" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="15" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="17" t="n"/>
-      <c r="C29" s="15" t="n"/>
-      <c r="D29" s="15" t="n"/>
-      <c r="E29" s="15" t="n"/>
-      <c r="F29" s="15" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C30" s="13" t="n"/>
-      <c r="D30" s="13" t="n"/>
-      <c r="E30" s="13" t="n"/>
-      <c r="F30" s="14" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C31" s="15" t="n"/>
-      <c r="D31" s="15" t="n"/>
-      <c r="E31" s="15" t="n"/>
-      <c r="F31" s="15" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="15" t="n"/>
-      <c r="D32" s="15" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="15" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="17" t="n"/>
-      <c r="C33" s="15" t="n"/>
-      <c r="D33" s="15" t="n"/>
-      <c r="E33" s="15" t="n"/>
-      <c r="F33" s="15" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C34" s="15" t="n"/>
-      <c r="D34" s="15" t="n"/>
-      <c r="E34" s="15" t="n"/>
-      <c r="F34" s="15" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="15" t="n"/>
-      <c r="D35" s="15" t="n"/>
-      <c r="E35" s="15" t="n"/>
-      <c r="F35" s="15" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="17" t="n"/>
-      <c r="C36" s="15" t="n"/>
-      <c r="D36" s="15" t="n"/>
-      <c r="E36" s="15" t="n"/>
-      <c r="F36" s="15" t="n"/>
+      <c r="B26" s="15" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="10">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B31:B33"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:G20"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -2879,10 +2171,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2898,9 +2190,9 @@
   <sheetData>
     <row r="1"/>
     <row r="2" ht="92" customHeight="1">
-      <c r="A2" s="33" t="n"/>
-      <c r="B2" s="33" t="n"/>
-      <c r="C2" s="34" t="inlineStr">
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>Metro-Lab Agnieszka Greń 
  Warszawa 01-386 ul. Reżyserska 5 
@@ -2909,44 +2201,44 @@
 www.metro-lab.pl</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="33" t="n"/>
-      <c r="F2" s="33" t="n"/>
-      <c r="G2" s="33" t="n"/>
+      <c r="D2" s="25" t="n"/>
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="25" t="n"/>
     </row>
     <row r="3" ht="41.25" customHeight="1">
-      <c r="A3" s="35" t="inlineStr">
+      <c r="A3" s="27" t="inlineStr">
         <is>
           <t>ŚWIADECTWO WZORCOWANIA</t>
         </is>
       </c>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="33" t="n"/>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="25" t="n"/>
+      <c r="D3" s="25" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="25" t="n"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>Data wydania:</t>
         </is>
       </c>
-      <c r="B4" s="33" t="n"/>
-      <c r="C4" s="36" t="inlineStr">
-        <is>
-          <t>27.06.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="36" t="inlineStr">
-        <is>
-          <t>Nr świadectwa: 9999/06/2023</t>
-        </is>
-      </c>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="B4" s="25" t="n"/>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>11.09.2023</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>Nr świadectwa: 9999/09/2023</t>
+        </is>
+      </c>
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>Strona 6/6</t>
         </is>
@@ -2968,7 +2260,7 @@
     </row>
     <row r="13"/>
     <row r="14"/>
-    <row r="15" ht="39.6" customHeight="1">
+    <row r="15" ht="38.25" customHeight="1">
       <c r="B15" s="10" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -2996,234 +2288,150 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="21" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>Ω</t>
         </is>
       </c>
-      <c r="C16" s="19" t="n"/>
-      <c r="D16" s="19" t="n"/>
-      <c r="E16" s="20" t="n"/>
-      <c r="F16" s="21" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="17" t="n"/>
+      <c r="F16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="23" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C17" s="23" t="n"/>
-      <c r="D17" s="23" t="n"/>
-      <c r="E17" s="23" t="n"/>
-      <c r="F17" s="23" t="n"/>
+      <c r="B17" s="13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="24" t="n"/>
-      <c r="C18" s="23" t="n"/>
-      <c r="D18" s="23" t="n"/>
-      <c r="E18" s="23" t="n"/>
-      <c r="F18" s="23" t="n"/>
+      <c r="B18" s="15" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="23" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C19" s="25" t="n"/>
-      <c r="D19" s="25" t="n"/>
-      <c r="E19" s="25" t="n"/>
-      <c r="F19" s="23" t="n"/>
+      <c r="B19" s="13" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="17" t="n"/>
+      <c r="F19" s="13" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="24" t="n"/>
-      <c r="C20" s="23" t="n"/>
-      <c r="D20" s="23" t="n"/>
-      <c r="E20" s="23" t="n"/>
-      <c r="F20" s="23" t="n"/>
+      <c r="B20" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="23" t="inlineStr">
-        <is>
-          <t>kΩ</t>
-        </is>
-      </c>
-      <c r="C21" s="26" t="n"/>
-      <c r="D21" s="26" t="n"/>
-      <c r="E21" s="26" t="n"/>
-      <c r="F21" s="27" t="n"/>
+      <c r="B21" s="15" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C22" s="23" t="n"/>
-      <c r="D22" s="23" t="n"/>
-      <c r="E22" s="23" t="n"/>
-      <c r="F22" s="23" t="n"/>
+      <c r="B22" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="24" t="n"/>
-      <c r="C23" s="23" t="n"/>
-      <c r="D23" s="23" t="n"/>
-      <c r="E23" s="23" t="n"/>
-      <c r="F23" s="23" t="n"/>
+      <c r="B23" s="15" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="23" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C24" s="23" t="n"/>
-      <c r="D24" s="23" t="n"/>
-      <c r="E24" s="23" t="n"/>
-      <c r="F24" s="23" t="n"/>
+      <c r="B24" s="13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="24" t="n"/>
-      <c r="C25" s="23" t="n"/>
-      <c r="D25" s="23" t="n"/>
-      <c r="E25" s="23" t="n"/>
-      <c r="F25" s="23" t="n"/>
+      <c r="B25" s="15" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="23" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C26" s="25" t="n"/>
-      <c r="D26" s="25" t="n"/>
-      <c r="E26" s="25" t="n"/>
-      <c r="F26" s="23" t="n"/>
+      <c r="B26" s="13" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="17" t="n"/>
+      <c r="F26" s="13" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="24" t="n"/>
-      <c r="C27" s="25" t="n"/>
-      <c r="D27" s="23" t="n"/>
-      <c r="E27" s="23" t="n"/>
-      <c r="F27" s="23" t="n"/>
+      <c r="B27" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="23" t="inlineStr">
-        <is>
-          <t>MΩ</t>
-        </is>
-      </c>
-      <c r="C28" s="26" t="n"/>
-      <c r="D28" s="26" t="n"/>
-      <c r="E28" s="26" t="n"/>
-      <c r="F28" s="27" t="n"/>
+      <c r="B28" s="15" t="n"/>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="23" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C29" s="23" t="n"/>
-      <c r="D29" s="23" t="n"/>
-      <c r="E29" s="23" t="n"/>
-      <c r="F29" s="23" t="n"/>
+      <c r="B29" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="C29" s="13" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="24" t="n"/>
-      <c r="C30" s="23" t="n"/>
-      <c r="D30" s="23" t="n"/>
-      <c r="E30" s="23" t="n"/>
-      <c r="F30" s="23" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="23" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="C31" s="23" t="n"/>
-      <c r="D31" s="23" t="n"/>
-      <c r="E31" s="23" t="n"/>
-      <c r="F31" s="23" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="24" t="n"/>
-      <c r="C32" s="23" t="n"/>
-      <c r="D32" s="23" t="n"/>
-      <c r="E32" s="23" t="n"/>
-      <c r="F32" s="23" t="n"/>
-    </row>
-    <row r="33">
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>-44.9373</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>49.9128</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.1441</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>250.0109</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.7217</t>
-        </is>
-      </c>
-    </row>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-    </row>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
+      <c r="B30" s="15" t="n"/>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B26:F26"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
